--- a/RSA_2019_08/X5_Data/KLDivUttWorkers_x5_UttChoiceSimpleRSA_2019_06_03ana2.xlsx
+++ b/RSA_2019_08/X5_Data/KLDivUttWorkers_x5_UttChoiceSimpleRSA_2019_06_03ana2.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="KLDivUttWorkers_x5_UttChoiceSim" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -976,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F217" sqref="F217"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="G217" sqref="G217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,15 +1062,15 @@
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9">
-        <f>B2-C2</f>
+        <f t="shared" ref="G2:G33" si="0">B2-C2</f>
         <v>-1.2458197445223007</v>
       </c>
       <c r="H2" s="9">
-        <f>B2-D2</f>
+        <f t="shared" ref="H2:H33" si="1">B2-D2</f>
         <v>-6.1473210166695935E-7</v>
       </c>
       <c r="I2" s="9">
-        <f>B2-E2</f>
+        <f t="shared" ref="I2:I33" si="2">B2-E2</f>
         <v>-5.7000100639470475E-8</v>
       </c>
       <c r="J2" s="9"/>
@@ -1111,15 +1111,15 @@
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9">
-        <f>B3-C3</f>
+        <f t="shared" si="0"/>
         <v>-0.70069925207271</v>
       </c>
       <c r="H3" s="9">
-        <f>B3-D3</f>
+        <f t="shared" si="1"/>
         <v>-6.3044375986365253E-7</v>
       </c>
       <c r="I3" s="9">
-        <f>B3-E3</f>
+        <f t="shared" si="2"/>
         <v>-1.3968759926541452E-8</v>
       </c>
       <c r="J3" s="9"/>
@@ -1160,15 +1160,15 @@
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9">
-        <f>B4-C4</f>
+        <f t="shared" si="0"/>
         <v>-0.70007781613839981</v>
       </c>
       <c r="H4" s="9">
-        <f>B4-D4</f>
+        <f t="shared" si="1"/>
         <v>-3.9555960107406918E-7</v>
       </c>
       <c r="I4" s="9">
-        <f>B4-E4</f>
+        <f t="shared" si="2"/>
         <v>-4.3192601495434246E-8</v>
       </c>
       <c r="J4" s="9"/>
@@ -1209,15 +1209,15 @@
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9">
-        <f>B5-C5</f>
+        <f t="shared" si="0"/>
         <v>-0.5586739771811704</v>
       </c>
       <c r="H5" s="9">
-        <f>B5-D5</f>
+        <f t="shared" si="1"/>
         <v>-4.3943469041352046E-7</v>
       </c>
       <c r="I5" s="9">
-        <f>B5-E5</f>
+        <f t="shared" si="2"/>
         <v>-2.1683460360577556E-8</v>
       </c>
       <c r="J5" s="9"/>
@@ -1258,15 +1258,15 @@
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9">
-        <f>B6-C6</f>
+        <f t="shared" si="0"/>
         <v>-0.47066005500259012</v>
       </c>
       <c r="H6" s="9">
-        <f>B6-D6</f>
+        <f t="shared" si="1"/>
         <v>-3.3340627014766255E-7</v>
       </c>
       <c r="I6" s="9">
-        <f>B6-E6</f>
+        <f t="shared" si="2"/>
         <v>-1.2540469995769854E-8</v>
       </c>
       <c r="J6" s="9"/>
@@ -1307,15 +1307,15 @@
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9">
-        <f>B7-C7</f>
+        <f t="shared" si="0"/>
         <v>-0.45736203603181025</v>
       </c>
       <c r="H7" s="9">
-        <f>B7-D7</f>
+        <f t="shared" si="1"/>
         <v>-3.9062608969686607E-7</v>
       </c>
       <c r="I7" s="9">
-        <f>B7-E7</f>
+        <f t="shared" si="2"/>
         <v>-3.007848992098161E-8</v>
       </c>
       <c r="J7" s="9"/>
@@ -1356,15 +1356,15 @@
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9">
-        <f>B8-C8</f>
+        <f t="shared" si="0"/>
         <v>-0.32647104680208017</v>
       </c>
       <c r="H8" s="9">
-        <f>B8-D8</f>
+        <f t="shared" si="1"/>
         <v>-3.8507049993086184E-8</v>
       </c>
       <c r="I8" s="9">
-        <f>B8-E8</f>
+        <f t="shared" si="2"/>
         <v>-6.8975101186197207E-9</v>
       </c>
       <c r="J8" s="9"/>
@@ -1405,15 +1405,15 @@
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9">
-        <f>B9-C9</f>
+        <f t="shared" si="0"/>
         <v>-0.30776796540555496</v>
       </c>
       <c r="H9" s="9">
-        <f>B9-D9</f>
+        <f t="shared" si="1"/>
         <v>-3.8532719237593938E-9</v>
       </c>
       <c r="I9" s="9">
-        <f>B9-E9</f>
+        <f t="shared" si="2"/>
         <v>-6.7716209306567521E-9</v>
       </c>
       <c r="J9" s="9"/>
@@ -1454,15 +1454,15 @@
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9">
-        <f>B10-C10</f>
+        <f t="shared" si="0"/>
         <v>-0.27749705667959002</v>
       </c>
       <c r="H10" s="9">
-        <f>B10-D10</f>
+        <f t="shared" si="1"/>
         <v>-5.2423370089371701E-8</v>
       </c>
       <c r="I10" s="9">
-        <f>B10-E10</f>
+        <f t="shared" si="2"/>
         <v>-9.2973500009918553E-9</v>
       </c>
       <c r="J10" s="9"/>
@@ -1503,15 +1503,15 @@
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9">
-        <f>B11-C11</f>
+        <f t="shared" si="0"/>
         <v>-0.26006182344007994</v>
       </c>
       <c r="H11" s="9">
-        <f>B11-D11</f>
+        <f t="shared" si="1"/>
         <v>-1.7777504096594399E-7</v>
       </c>
       <c r="I11" s="9">
-        <f>B11-E11</f>
+        <f t="shared" si="2"/>
         <v>-4.649261975409047E-9</v>
       </c>
       <c r="J11" s="9"/>
@@ -1552,15 +1552,15 @@
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9">
-        <f>B12-C12</f>
+        <f t="shared" si="0"/>
         <v>-0.25867513949589405</v>
       </c>
       <c r="H12" s="9">
-        <f>B12-D12</f>
+        <f t="shared" si="1"/>
         <v>-5.5399041021253481E-8</v>
       </c>
       <c r="I12" s="9">
-        <f>B12-E12</f>
+        <f t="shared" si="2"/>
         <v>-3.7370600225461459E-9</v>
       </c>
       <c r="J12" s="9"/>
@@ -1601,15 +1601,15 @@
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9">
-        <f>B13-C13</f>
+        <f t="shared" si="0"/>
         <v>-0.22732468306308901</v>
       </c>
       <c r="H13" s="9">
-        <f>B13-D13</f>
+        <f t="shared" si="1"/>
         <v>-5.7502614003723806E-8</v>
       </c>
       <c r="I13" s="9">
-        <f>B13-E13</f>
+        <f t="shared" si="2"/>
         <v>-4.7291939808680183E-9</v>
       </c>
       <c r="J13" s="9"/>
@@ -1650,15 +1650,15 @@
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9">
-        <f>B14-C14</f>
+        <f t="shared" si="0"/>
         <v>-0.21145466497201992</v>
       </c>
       <c r="H14" s="9">
-        <f>B14-D14</f>
+        <f t="shared" si="1"/>
         <v>-8.2983354965371348E-8</v>
       </c>
       <c r="I14" s="9">
-        <f>B14-E14</f>
+        <f t="shared" si="2"/>
         <v>1.3628193285146972E-2</v>
       </c>
       <c r="J14" s="9"/>
@@ -1699,15 +1699,15 @@
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9">
-        <f>B15-C15</f>
+        <f t="shared" si="0"/>
         <v>-0.210477484222172</v>
       </c>
       <c r="H15" s="9">
-        <f>B15-D15</f>
+        <f t="shared" si="1"/>
         <v>1.5267645369156979E-2</v>
       </c>
       <c r="I15" s="9">
-        <f>B15-E15</f>
+        <f t="shared" si="2"/>
         <v>4.900384857152798E-2</v>
       </c>
       <c r="J15" s="9"/>
@@ -1748,15 +1748,15 @@
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9">
-        <f>B16-C16</f>
+        <f t="shared" si="0"/>
         <v>-0.19712981155213596</v>
       </c>
       <c r="H16" s="9">
-        <f>B16-D16</f>
+        <f t="shared" si="1"/>
         <v>-5.502208599850178E-8</v>
       </c>
       <c r="I16" s="9">
-        <f>B16-E16</f>
+        <f t="shared" si="2"/>
         <v>-3.806100989933725E-9</v>
       </c>
       <c r="J16" s="9"/>
@@ -1797,15 +1797,15 @@
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9">
-        <f>B17-C17</f>
+        <f t="shared" si="0"/>
         <v>-0.19627259094953903</v>
       </c>
       <c r="H17" s="9">
-        <f>B17-D17</f>
+        <f t="shared" si="1"/>
         <v>-6.2597694971966433E-8</v>
       </c>
       <c r="I17" s="9">
-        <f>B17-E17</f>
+        <f t="shared" si="2"/>
         <v>-4.7896839827643589E-9</v>
       </c>
       <c r="J17" s="9"/>
@@ -1846,15 +1846,15 @@
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9">
-        <f>B18-C18</f>
+        <f t="shared" si="0"/>
         <v>-0.183901609331762</v>
       </c>
       <c r="H18" s="9">
-        <f>B18-D18</f>
+        <f t="shared" si="1"/>
         <v>-3.1934253300752724E-8</v>
       </c>
       <c r="I18" s="9">
-        <f>B18-E18</f>
+        <f t="shared" si="2"/>
         <v>1.2288947281478297E-3</v>
       </c>
       <c r="J18" s="9"/>
@@ -1895,15 +1895,15 @@
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9">
-        <f>B19-C19</f>
+        <f t="shared" si="0"/>
         <v>-0.17108756919018198</v>
       </c>
       <c r="H19" s="9">
-        <f>B19-D19</f>
+        <f t="shared" si="1"/>
         <v>-4.9696629991768937E-8</v>
       </c>
       <c r="I19" s="9">
-        <f>B19-E19</f>
+        <f t="shared" si="2"/>
         <v>-4.1926049992868641E-9</v>
       </c>
       <c r="J19" s="9"/>
@@ -1944,15 +1944,15 @@
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9">
-        <f>B20-C20</f>
+        <f t="shared" si="0"/>
         <v>-0.16428301049226801</v>
       </c>
       <c r="H20" s="9">
-        <f>B20-D20</f>
+        <f t="shared" si="1"/>
         <v>-4.9171183014173891E-8</v>
       </c>
       <c r="I20" s="9">
-        <f>B20-E20</f>
+        <f t="shared" si="2"/>
         <v>1.4954313756701976E-2</v>
       </c>
       <c r="J20" s="9"/>
@@ -1993,15 +1993,15 @@
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9">
-        <f>B21-C21</f>
+        <f t="shared" si="0"/>
         <v>-0.1537602309065855</v>
       </c>
       <c r="H21" s="9">
-        <f>B21-D21</f>
+        <f t="shared" si="1"/>
         <v>-4.7385935200011664E-8</v>
       </c>
       <c r="I21" s="9">
-        <f>B21-E21</f>
+        <f t="shared" si="2"/>
         <v>-3.6929197026747129E-9</v>
       </c>
       <c r="J21" s="9"/>
@@ -2042,15 +2042,15 @@
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9">
-        <f>B22-C22</f>
+        <f t="shared" si="0"/>
         <v>-0.14986674110916398</v>
       </c>
       <c r="H22" s="9">
-        <f>B22-D22</f>
+        <f t="shared" si="1"/>
         <v>-7.215207098454357E-8</v>
       </c>
       <c r="I22" s="9">
-        <f>B22-E22</f>
+        <f t="shared" si="2"/>
         <v>2.3576825985981043E-2</v>
       </c>
       <c r="J22" s="9"/>
@@ -2091,15 +2091,15 @@
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9">
-        <f>B23-C23</f>
+        <f t="shared" si="0"/>
         <v>-0.14076655132326693</v>
       </c>
       <c r="H23" s="9">
-        <f>B23-D23</f>
+        <f t="shared" si="1"/>
         <v>6.7416400131738996E-2</v>
       </c>
       <c r="I23" s="9">
-        <f>B23-E23</f>
+        <f t="shared" si="2"/>
         <v>2.7875526207302992E-2</v>
       </c>
       <c r="J23" s="9"/>
@@ -2140,15 +2140,15 @@
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9">
-        <f>B24-C24</f>
+        <f t="shared" si="0"/>
         <v>-0.12077956876865492</v>
       </c>
       <c r="H24" s="9">
-        <f>B24-D24</f>
+        <f t="shared" si="1"/>
         <v>-1.6863136098610454E-7</v>
       </c>
       <c r="I24" s="9">
-        <f>B24-E24</f>
+        <f t="shared" si="2"/>
         <v>-1.4907419743082073E-9</v>
       </c>
       <c r="J24" s="9"/>
@@ -2189,15 +2189,15 @@
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9">
-        <f>B25-C25</f>
+        <f t="shared" si="0"/>
         <v>-0.11451761667673499</v>
       </c>
       <c r="H25" s="9">
-        <f>B25-D25</f>
+        <f t="shared" si="1"/>
         <v>1.2718541156028995E-2</v>
       </c>
       <c r="I25" s="9">
-        <f>B25-E25</f>
+        <f t="shared" si="2"/>
         <v>1.5087108665823024E-2</v>
       </c>
       <c r="J25" s="9"/>
@@ -2238,15 +2238,15 @@
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9">
-        <f>B26-C26</f>
+        <f t="shared" si="0"/>
         <v>-8.7931958545733935E-2</v>
       </c>
       <c r="H26" s="9">
-        <f>B26-D26</f>
+        <f t="shared" si="1"/>
         <v>-3.8598858997929142E-8</v>
       </c>
       <c r="I26" s="9">
-        <f>B26-E26</f>
+        <f t="shared" si="2"/>
         <v>1.9381015486602537E-4</v>
       </c>
       <c r="J26" s="9"/>
@@ -2287,15 +2287,15 @@
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9">
-        <f>B27-C27</f>
+        <f t="shared" si="0"/>
         <v>-7.9830556438206801E-2</v>
       </c>
       <c r="H27" s="9">
-        <f>B27-D27</f>
+        <f t="shared" si="1"/>
         <v>1.4652751845759995E-2</v>
       </c>
       <c r="I27" s="9">
-        <f>B27-E27</f>
+        <f t="shared" si="2"/>
         <v>1.4652751865659494E-2</v>
       </c>
       <c r="J27" s="9"/>
@@ -2336,15 +2336,15 @@
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="9">
-        <f>B28-C28</f>
+        <f t="shared" si="0"/>
         <v>-7.8939549332017966E-2</v>
       </c>
       <c r="H28" s="9">
-        <f>B28-D28</f>
+        <f t="shared" si="1"/>
         <v>7.6550126855645995E-2</v>
       </c>
       <c r="I28" s="9">
-        <f>B28-E28</f>
+        <f t="shared" si="2"/>
         <v>-3.7989689727346843E-9</v>
       </c>
       <c r="J28" s="9"/>
@@ -2385,15 +2385,15 @@
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9">
-        <f>B29-C29</f>
+        <f t="shared" si="0"/>
         <v>-7.4295772807179972E-2</v>
       </c>
       <c r="H29" s="9">
-        <f>B29-D29</f>
+        <f t="shared" si="1"/>
         <v>-5.7396402963760806E-8</v>
       </c>
       <c r="I29" s="9">
-        <f>B29-E29</f>
+        <f t="shared" si="2"/>
         <v>1.7912476277719969E-3</v>
       </c>
       <c r="J29" s="9"/>
@@ -2434,15 +2434,15 @@
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9">
-        <f>B30-C30</f>
+        <f t="shared" si="0"/>
         <v>-7.0208424759963972E-2</v>
       </c>
       <c r="H30" s="9">
-        <f>B30-D30</f>
+        <f t="shared" si="1"/>
         <v>6.8519880056412019E-2</v>
       </c>
       <c r="I30" s="9">
-        <f>B30-E30</f>
+        <f t="shared" si="2"/>
         <v>0.16178491171864201</v>
       </c>
       <c r="J30" s="9"/>
@@ -2483,15 +2483,15 @@
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9">
-        <f>B31-C31</f>
+        <f t="shared" si="0"/>
         <v>-6.6795283660429972E-2</v>
       </c>
       <c r="H31" s="9">
-        <f>B31-D31</f>
+        <f t="shared" si="1"/>
         <v>6.3167545499910105E-2</v>
       </c>
       <c r="I31" s="9">
-        <f>B31-E31</f>
+        <f t="shared" si="2"/>
         <v>0.15893109018681995</v>
       </c>
       <c r="J31" s="9"/>
@@ -2532,15 +2532,15 @@
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9">
-        <f>B32-C32</f>
+        <f t="shared" si="0"/>
         <v>-6.1993114846549791E-2</v>
       </c>
       <c r="H32" s="9">
-        <f>B32-D32</f>
+        <f t="shared" si="1"/>
         <v>4.1075750026300373E-3</v>
       </c>
       <c r="I32" s="9">
-        <f>B32-E32</f>
+        <f t="shared" si="2"/>
         <v>4.1075749750001389E-3</v>
       </c>
       <c r="J32" s="9"/>
@@ -2581,15 +2581,15 @@
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="9">
-        <f>B33-C33</f>
+        <f t="shared" si="0"/>
         <v>-6.1605195031629645E-2</v>
       </c>
       <c r="H33" s="9">
-        <f>B33-D33</f>
+        <f t="shared" si="1"/>
         <v>0.1238651855295001</v>
       </c>
       <c r="I33" s="9">
-        <f>B33-E33</f>
+        <f t="shared" si="2"/>
         <v>5.8254373418880068E-2</v>
       </c>
       <c r="J33" s="9"/>
@@ -2630,15 +2630,15 @@
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9">
-        <f>B34-C34</f>
+        <f t="shared" ref="G34:G65" si="3">B34-C34</f>
         <v>-6.1348028156829937E-2</v>
       </c>
       <c r="H34" s="9">
-        <f>B34-D34</f>
+        <f t="shared" ref="H34:H65" si="4">B34-D34</f>
         <v>3.4923228251610094E-2</v>
       </c>
       <c r="I34" s="9">
-        <f>B34-E34</f>
+        <f t="shared" ref="I34:I65" si="5">B34-E34</f>
         <v>-9.6691299411588716E-9</v>
       </c>
       <c r="J34" s="9"/>
@@ -2679,15 +2679,15 @@
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="9">
-        <f>B35-C35</f>
+        <f t="shared" si="3"/>
         <v>-5.8187503284749975E-2</v>
       </c>
       <c r="H35" s="9">
-        <f>B35-D35</f>
+        <f t="shared" si="4"/>
         <v>2.0074622569711043E-2</v>
       </c>
       <c r="I35" s="9">
-        <f>B35-E35</f>
+        <f t="shared" si="5"/>
         <v>3.3454863378062027E-2</v>
       </c>
       <c r="J35" s="9"/>
@@ -2728,15 +2728,15 @@
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="9">
-        <f>B36-C36</f>
+        <f t="shared" si="3"/>
         <v>-5.7698145816379887E-2</v>
       </c>
       <c r="H36" s="9">
-        <f>B36-D36</f>
+        <f t="shared" si="4"/>
         <v>3.6295000757579965E-2</v>
       </c>
       <c r="I36" s="9">
-        <f>B36-E36</f>
+        <f t="shared" si="5"/>
         <v>-7.7499200390462875E-9</v>
       </c>
       <c r="J36" s="9"/>
@@ -2777,15 +2777,15 @@
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="9">
-        <f>B37-C37</f>
+        <f t="shared" si="3"/>
         <v>-5.7422073543551E-2</v>
       </c>
       <c r="H37" s="9">
-        <f>B37-D37</f>
+        <f t="shared" si="4"/>
         <v>8.9328852485039967E-3</v>
       </c>
       <c r="I37" s="9">
-        <f>B37-E37</f>
+        <f t="shared" si="5"/>
         <v>2.1517098161699666E-4</v>
       </c>
       <c r="J37" s="9"/>
@@ -2826,15 +2826,15 @@
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="9">
-        <f>B38-C38</f>
+        <f t="shared" si="3"/>
         <v>-5.7142998456467975E-2</v>
       </c>
       <c r="H38" s="9">
-        <f>B38-D38</f>
+        <f t="shared" si="4"/>
         <v>9.8806463916242038E-2</v>
       </c>
       <c r="I38" s="9">
-        <f>B38-E38</f>
+        <f t="shared" si="5"/>
         <v>-5.1352689878214619E-9</v>
       </c>
       <c r="J38" s="9"/>
@@ -2875,15 +2875,15 @@
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="9">
-        <f>B39-C39</f>
+        <f t="shared" si="3"/>
         <v>-5.5433511248525968E-2</v>
       </c>
       <c r="H39" s="9">
-        <f>B39-D39</f>
+        <f t="shared" si="4"/>
         <v>0.13243295883900902</v>
       </c>
       <c r="I39" s="9">
-        <f>B39-E39</f>
+        <f t="shared" si="5"/>
         <v>-8.3278900442351755E-10</v>
       </c>
       <c r="J39" s="9"/>
@@ -2924,15 +2924,15 @@
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="9">
-        <f>B40-C40</f>
+        <f t="shared" si="3"/>
         <v>-4.5344475108819893E-2</v>
       </c>
       <c r="H40" s="9">
-        <f>B40-D40</f>
+        <f t="shared" si="4"/>
         <v>1.6432665528946067E-2</v>
       </c>
       <c r="I40" s="9">
-        <f>B40-E40</f>
+        <f t="shared" si="5"/>
         <v>1.6432665532851054E-2</v>
       </c>
       <c r="J40" s="9"/>
@@ -2973,15 +2973,15 @@
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="9">
-        <f>B41-C41</f>
+        <f t="shared" si="3"/>
         <v>-3.519863412040497E-2</v>
       </c>
       <c r="H41" s="9">
-        <f>B41-D41</f>
+        <f t="shared" si="4"/>
         <v>8.0262292950195019E-2</v>
       </c>
       <c r="I41" s="9">
-        <f>B41-E41</f>
+        <f t="shared" si="5"/>
         <v>8.0262292948934028E-2</v>
       </c>
       <c r="J41" s="9"/>
@@ -3022,15 +3022,15 @@
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="9">
-        <f>B42-C42</f>
+        <f t="shared" si="3"/>
         <v>-3.1681350445720069E-2</v>
       </c>
       <c r="H42" s="9">
-        <f>B42-D42</f>
+        <f t="shared" si="4"/>
         <v>-1.545131000924016E-8</v>
       </c>
       <c r="I42" s="9">
-        <f>B42-E42</f>
+        <f t="shared" si="5"/>
         <v>-1.8409500590621519E-9</v>
       </c>
       <c r="J42" s="9"/>
@@ -3071,15 +3071,15 @@
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="9">
-        <f>B43-C43</f>
+        <f t="shared" si="3"/>
         <v>-2.4987236804260071E-2</v>
       </c>
       <c r="H43" s="9">
-        <f>B43-D43</f>
+        <f t="shared" si="4"/>
         <v>1.6805230467179744E-2</v>
       </c>
       <c r="I43" s="9">
-        <f>B43-E43</f>
+        <f t="shared" si="5"/>
         <v>1.6805230467049626E-2</v>
       </c>
       <c r="J43" s="9"/>
@@ -3120,15 +3120,15 @@
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="9">
-        <f>B44-C44</f>
+        <f t="shared" si="3"/>
         <v>-2.1187925058128054E-2</v>
       </c>
       <c r="H44" s="9">
-        <f>B44-D44</f>
+        <f t="shared" si="4"/>
         <v>2.6397960069243998E-2</v>
       </c>
       <c r="I44" s="9">
-        <f>B44-E44</f>
+        <f t="shared" si="5"/>
         <v>2.6397960069215021E-2</v>
       </c>
       <c r="J44" s="9"/>
@@ -3169,15 +3169,15 @@
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="9">
-        <f>B45-C45</f>
+        <f t="shared" si="3"/>
         <v>-1.4060276896546042E-2</v>
       </c>
       <c r="H45" s="9">
-        <f>B45-D45</f>
+        <f t="shared" si="4"/>
         <v>5.388970457743697E-2</v>
       </c>
       <c r="I45" s="9">
-        <f>B45-E45</f>
+        <f t="shared" si="5"/>
         <v>6.6992117083870983E-2</v>
       </c>
       <c r="J45" s="9"/>
@@ -3218,15 +3218,15 @@
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="9">
-        <f>B46-C46</f>
+        <f t="shared" si="3"/>
         <v>-5.6441916487568466E-3</v>
       </c>
       <c r="H46" s="9">
-        <f>B46-D46</f>
+        <f t="shared" si="4"/>
         <v>-1.6824749093924396E-7</v>
       </c>
       <c r="I46" s="9">
-        <f>B46-E46</f>
+        <f t="shared" si="5"/>
         <v>-1.7024759380035448E-9</v>
       </c>
       <c r="J46" s="9"/>
@@ -3266,15 +3266,15 @@
         <v>0.35427068107256299</v>
       </c>
       <c r="G47">
-        <f>B47-C47</f>
+        <f t="shared" si="3"/>
         <v>4.1461741502801797E-4</v>
       </c>
       <c r="H47">
-        <f>B47-D47</f>
+        <f t="shared" si="4"/>
         <v>7.820534597873019E-3</v>
       </c>
       <c r="I47">
-        <f>B47-E47</f>
+        <f t="shared" si="5"/>
         <v>8.100836512878018E-3</v>
       </c>
       <c r="K47">
@@ -3313,15 +3313,15 @@
         <v>0.14676528052391899</v>
       </c>
       <c r="G48">
-        <f>B48-C48</f>
+        <f t="shared" si="3"/>
         <v>2.7907417409989976E-3</v>
       </c>
       <c r="H48">
-        <f>B48-D48</f>
+        <f t="shared" si="4"/>
         <v>5.6777939163947994E-2</v>
       </c>
       <c r="I48">
-        <f>B48-E48</f>
+        <f t="shared" si="5"/>
         <v>5.6777939164319002E-2</v>
       </c>
       <c r="K48">
@@ -3360,15 +3360,15 @@
         <v>0.32474524312516401</v>
       </c>
       <c r="G49">
-        <f>B49-C49</f>
+        <f t="shared" si="3"/>
         <v>1.7898866411672987E-2</v>
       </c>
       <c r="H49">
-        <f>B49-D49</f>
+        <f t="shared" si="4"/>
         <v>4.8883946082797003E-2</v>
       </c>
       <c r="I49">
-        <f>B49-E49</f>
+        <f t="shared" si="5"/>
         <v>4.8883946089082975E-2</v>
       </c>
       <c r="K49">
@@ -3407,15 +3407,15 @@
         <v>7.0755878369343994E-2</v>
       </c>
       <c r="G50">
-        <f>B50-C50</f>
+        <f t="shared" si="3"/>
         <v>4.3800243886255516E-2</v>
       </c>
       <c r="H50">
-        <f>B50-D50</f>
+        <f t="shared" si="4"/>
         <v>4.3080685816418107E-2</v>
       </c>
       <c r="I50">
-        <f>B50-E50</f>
+        <f t="shared" si="5"/>
         <v>5.6112951691501017E-2</v>
       </c>
       <c r="K50">
@@ -3454,15 +3454,15 @@
         <v>0.39147595980111</v>
       </c>
       <c r="G51">
-        <f>B51-C51</f>
+        <f t="shared" si="3"/>
         <v>4.9554443742945986E-2</v>
       </c>
       <c r="H51">
-        <f>B51-D51</f>
+        <f t="shared" si="4"/>
         <v>5.9734466658166008E-2</v>
       </c>
       <c r="I51">
-        <f>B51-E51</f>
+        <f t="shared" si="5"/>
         <v>6.1185843381713012E-2</v>
       </c>
       <c r="K51">
@@ -3501,15 +3501,15 @@
         <v>4.6571331076026903</v>
       </c>
       <c r="G52">
-        <f>B52-C52</f>
+        <f t="shared" si="3"/>
         <v>5.8249986022730127E-2</v>
       </c>
       <c r="H52">
-        <f>B52-D52</f>
+        <f t="shared" si="4"/>
         <v>-1.9374827964213637E-7</v>
       </c>
       <c r="I52">
-        <f>B52-E52</f>
+        <f t="shared" si="5"/>
         <v>-1.4600270326070586E-8</v>
       </c>
       <c r="K52">
@@ -3548,15 +3548,15 @@
         <v>0.14890774679923599</v>
       </c>
       <c r="G53">
-        <f>B53-C53</f>
+        <f t="shared" si="3"/>
         <v>9.1788735559520995E-2</v>
       </c>
       <c r="H53">
-        <f>B53-D53</f>
+        <f t="shared" si="4"/>
         <v>0.18480171640793</v>
       </c>
       <c r="I53">
-        <f>B53-E53</f>
+        <f t="shared" si="5"/>
         <v>0.18480171640853701</v>
       </c>
       <c r="K53">
@@ -3595,15 +3595,15 @@
         <v>0.26043760841028502</v>
       </c>
       <c r="G54">
-        <f>B54-C54</f>
+        <f t="shared" si="3"/>
         <v>0.13378400365559401</v>
       </c>
       <c r="H54">
-        <f>B54-D54</f>
+        <f t="shared" si="4"/>
         <v>0.19076573925979401</v>
       </c>
       <c r="I54">
-        <f>B54-E54</f>
+        <f t="shared" si="5"/>
         <v>0.19925427480046898</v>
       </c>
       <c r="K54">
@@ -3642,15 +3642,15 @@
         <v>2.0993814148838101</v>
       </c>
       <c r="G55">
-        <f>B55-C55</f>
+        <f t="shared" si="3"/>
         <v>0.16979519445157987</v>
       </c>
       <c r="H55">
-        <f>B55-D55</f>
+        <f t="shared" si="4"/>
         <v>-1.1924428999776637E-7</v>
       </c>
       <c r="I55">
-        <f>B55-E55</f>
+        <f t="shared" si="5"/>
         <v>-4.086530225322349E-9</v>
       </c>
       <c r="K55">
@@ -3689,15 +3689,15 @@
         <v>0.26218669777797898</v>
       </c>
       <c r="G56">
-        <f>B56-C56</f>
+        <f t="shared" si="3"/>
         <v>0.211976560724978</v>
       </c>
       <c r="H56">
-        <f>B56-D56</f>
+        <f t="shared" si="4"/>
         <v>0.21177759993582201</v>
       </c>
       <c r="I56">
-        <f>B56-E56</f>
+        <f t="shared" si="5"/>
         <v>0.21244687559015801</v>
       </c>
       <c r="K56">
@@ -3736,15 +3736,15 @@
         <v>0.220013894852401</v>
       </c>
       <c r="G57">
-        <f>B57-C57</f>
+        <f t="shared" si="3"/>
         <v>0.21361449185714199</v>
       </c>
       <c r="H57">
-        <f>B57-D57</f>
+        <f t="shared" si="4"/>
         <v>0.23641846300936997</v>
       </c>
       <c r="I57">
-        <f>B57-E57</f>
+        <f t="shared" si="5"/>
         <v>0.23641846300904398</v>
       </c>
       <c r="K57">
@@ -3783,15 +3783,15 @@
         <v>2.9306731786169999</v>
       </c>
       <c r="G58">
-        <f>B58-C58</f>
+        <f t="shared" si="3"/>
         <v>0.22133064239024014</v>
       </c>
       <c r="H58">
-        <f>B58-D58</f>
+        <f t="shared" si="4"/>
         <v>0.21695407132754996</v>
       </c>
       <c r="I58">
-        <f>B58-E58</f>
+        <f t="shared" si="5"/>
         <v>0.22446271719589017</v>
       </c>
       <c r="K58">
@@ -3830,15 +3830,15 @@
         <v>0.652257923131353</v>
       </c>
       <c r="G59">
-        <f>B59-C59</f>
+        <f t="shared" si="3"/>
         <v>0.25697413866227703</v>
       </c>
       <c r="H59">
-        <f>B59-D59</f>
+        <f t="shared" si="4"/>
         <v>0.31559420809095606</v>
       </c>
       <c r="I59">
-        <f>B59-E59</f>
+        <f t="shared" si="5"/>
         <v>0.19345364784671104</v>
       </c>
       <c r="K59">
@@ -3877,15 +3877,15 @@
         <v>0.91651648696820098</v>
       </c>
       <c r="G60">
-        <f>B60-C60</f>
+        <f t="shared" si="3"/>
         <v>0.29096071793934009</v>
       </c>
       <c r="H60">
-        <f>B60-D60</f>
+        <f t="shared" si="4"/>
         <v>0.35936321839855001</v>
       </c>
       <c r="I60">
-        <f>B60-E60</f>
+        <f t="shared" si="5"/>
         <v>0.45833770468547907</v>
       </c>
       <c r="K60">
@@ -3924,15 +3924,15 @@
         <v>4.4142934072149798</v>
       </c>
       <c r="G61">
-        <f>B61-C61</f>
+        <f t="shared" si="3"/>
         <v>0.29487202714415961</v>
       </c>
       <c r="H61">
-        <f>B61-D61</f>
+        <f t="shared" si="4"/>
         <v>0.30490892954891002</v>
       </c>
       <c r="I61">
-        <f>B61-E61</f>
+        <f t="shared" si="5"/>
         <v>0.30986579020196992</v>
       </c>
       <c r="K61">
@@ -3971,15 +3971,15 @@
         <v>6.9490670097771101</v>
       </c>
       <c r="G62">
-        <f>B62-C62</f>
+        <f t="shared" si="3"/>
         <v>0.45506658230724994</v>
       </c>
       <c r="H62">
-        <f>B62-D62</f>
+        <f t="shared" si="4"/>
         <v>0.45954882324034951</v>
       </c>
       <c r="I62">
-        <f>B62-E62</f>
+        <f t="shared" si="5"/>
         <v>0.47596314357451952</v>
       </c>
       <c r="K62">
@@ -4018,15 +4018,15 @@
         <v>0.35434395317487699</v>
       </c>
       <c r="G63">
-        <f>B63-C63</f>
+        <f t="shared" si="3"/>
         <v>0.46663584703530597</v>
       </c>
       <c r="H63">
-        <f>B63-D63</f>
+        <f t="shared" si="4"/>
         <v>0.59399872957533995</v>
       </c>
       <c r="I63">
-        <f>B63-E63</f>
+        <f t="shared" si="5"/>
         <v>0.59399872957835997</v>
       </c>
       <c r="K63">
@@ -4065,15 +4065,15 @@
         <v>2.5292359195307301</v>
       </c>
       <c r="G64">
-        <f>B64-C64</f>
+        <f t="shared" si="3"/>
         <v>0.48995206550452997</v>
       </c>
       <c r="H64">
-        <f>B64-D64</f>
+        <f t="shared" si="4"/>
         <v>0.49989744198028996</v>
       </c>
       <c r="I64">
-        <f>B64-E64</f>
+        <f t="shared" si="5"/>
         <v>0.5157159359027399</v>
       </c>
       <c r="K64">
@@ -4112,15 +4112,15 @@
         <v>2.5052809357071801</v>
       </c>
       <c r="G65">
-        <f>B65-C65</f>
+        <f t="shared" si="3"/>
         <v>0.53831861557848004</v>
       </c>
       <c r="H65">
-        <f>B65-D65</f>
+        <f t="shared" si="4"/>
         <v>0.76970394764718009</v>
       </c>
       <c r="I65">
-        <f>B65-E65</f>
+        <f t="shared" si="5"/>
         <v>-1.1583550119098618E-8</v>
       </c>
       <c r="K65">
@@ -4159,15 +4159,15 @@
         <v>0.78690583233011102</v>
       </c>
       <c r="G66">
-        <f>B66-C66</f>
+        <f t="shared" ref="G66:G97" si="6">B66-C66</f>
         <v>0.59417489890359709</v>
       </c>
       <c r="H66">
-        <f>B66-D66</f>
+        <f t="shared" ref="H66:H97" si="7">B66-D66</f>
         <v>0.59070797974214506</v>
       </c>
       <c r="I66">
-        <f>B66-E66</f>
+        <f t="shared" ref="I66:I97" si="8">B66-E66</f>
         <v>0.15003892505271299</v>
       </c>
       <c r="K66">
@@ -4206,15 +4206,15 @@
         <v>1.94586300220424</v>
       </c>
       <c r="G67">
-        <f>B67-C67</f>
+        <f t="shared" si="6"/>
         <v>0.60687350257335027</v>
       </c>
       <c r="H67">
-        <f>B67-D67</f>
+        <f t="shared" si="7"/>
         <v>0.59941754435258021</v>
       </c>
       <c r="I67">
-        <f>B67-E67</f>
+        <f t="shared" si="8"/>
         <v>0.22885094596774014</v>
       </c>
       <c r="K67">
@@ -4253,15 +4253,15 @@
         <v>1.0065574633055601</v>
       </c>
       <c r="G68">
-        <f>B68-C68</f>
+        <f t="shared" si="6"/>
         <v>0.61515465602764996</v>
       </c>
       <c r="H68">
-        <f>B68-D68</f>
+        <f t="shared" si="7"/>
         <v>0.58544519747644008</v>
       </c>
       <c r="I68">
-        <f>B68-E68</f>
+        <f t="shared" si="8"/>
         <v>0.73040216763326993</v>
       </c>
       <c r="K68">
@@ -4300,15 +4300,15 @@
         <v>1.28088507115293</v>
       </c>
       <c r="G69">
-        <f>B69-C69</f>
+        <f t="shared" si="6"/>
         <v>0.65909819953674997</v>
       </c>
       <c r="H69">
-        <f>B69-D69</f>
+        <f t="shared" si="7"/>
         <v>0.65909820927549001</v>
       </c>
       <c r="I69">
-        <f>B69-E69</f>
+        <f t="shared" si="8"/>
         <v>0.58922305354449001</v>
       </c>
       <c r="K69">
@@ -4347,15 +4347,15 @@
         <v>4.0135860635641096</v>
       </c>
       <c r="G70">
-        <f>B70-C70</f>
+        <f t="shared" si="6"/>
         <v>0.71591288316782009</v>
       </c>
       <c r="H70">
-        <f>B70-D70</f>
+        <f t="shared" si="7"/>
         <v>1.0080500806697401</v>
       </c>
       <c r="I70">
-        <f>B70-E70</f>
+        <f t="shared" si="8"/>
         <v>1.00805008056009</v>
       </c>
       <c r="K70">
@@ -4394,15 +4394,15 @@
         <v>3.48414787886722</v>
       </c>
       <c r="G71">
-        <f>B71-C71</f>
+        <f t="shared" si="6"/>
         <v>0.72528327467161002</v>
       </c>
       <c r="H71">
-        <f>B71-D71</f>
+        <f t="shared" si="7"/>
         <v>0.72346935229044984</v>
       </c>
       <c r="I71">
-        <f>B71-E71</f>
+        <f t="shared" si="8"/>
         <v>0.72328569177529989</v>
       </c>
       <c r="K71">
@@ -4441,15 +4441,15 @@
         <v>0.52305847672878902</v>
       </c>
       <c r="G72">
-        <f>B72-C72</f>
+        <f t="shared" si="6"/>
         <v>0.740734274431609</v>
       </c>
       <c r="H72">
-        <f>B72-D72</f>
+        <f t="shared" si="7"/>
         <v>0.75011102528013895</v>
       </c>
       <c r="I72">
-        <f>B72-E72</f>
+        <f t="shared" si="8"/>
         <v>0.79698817912868092</v>
       </c>
       <c r="K72">
@@ -4488,15 +4488,15 @@
         <v>3.0220854074825501</v>
       </c>
       <c r="G73">
-        <f>B73-C73</f>
+        <f t="shared" si="6"/>
         <v>0.7973652372281399</v>
       </c>
       <c r="H73">
-        <f>B73-D73</f>
+        <f t="shared" si="7"/>
         <v>1.0484522420070299</v>
       </c>
       <c r="I73">
-        <f>B73-E73</f>
+        <f t="shared" si="8"/>
         <v>-1.4303790152325746E-8</v>
       </c>
       <c r="K73">
@@ -4535,15 +4535,15 @@
         <v>3.6115786820054501</v>
       </c>
       <c r="G74">
-        <f>B74-C74</f>
+        <f t="shared" si="6"/>
         <v>0.89587446405777005</v>
       </c>
       <c r="H74">
-        <f>B74-D74</f>
+        <f t="shared" si="7"/>
         <v>0.8895942311021301</v>
       </c>
       <c r="I74">
-        <f>B74-E74</f>
+        <f t="shared" si="8"/>
         <v>0.9819045149166401</v>
       </c>
       <c r="K74">
@@ -4582,15 +4582,15 @@
         <v>1.1038226440632599</v>
       </c>
       <c r="G75">
-        <f>B75-C75</f>
+        <f t="shared" si="6"/>
         <v>1.0577794354669792</v>
       </c>
       <c r="H75">
-        <f>B75-D75</f>
+        <f t="shared" si="7"/>
         <v>1.0571172668002011</v>
       </c>
       <c r="I75">
-        <f>B75-E75</f>
+        <f t="shared" si="8"/>
         <v>0.29812617011669018</v>
       </c>
       <c r="K75">
@@ -4629,15 +4629,15 @@
         <v>2.06180506324027</v>
       </c>
       <c r="G76">
-        <f>B76-C76</f>
+        <f t="shared" si="6"/>
         <v>1.0609351857989697</v>
       </c>
       <c r="H76">
-        <f>B76-D76</f>
+        <f t="shared" si="7"/>
         <v>1.0569167311667798</v>
       </c>
       <c r="I76">
-        <f>B76-E76</f>
+        <f t="shared" si="8"/>
         <v>0.80652722365395979</v>
       </c>
       <c r="K76">
@@ -4676,15 +4676,15 @@
         <v>5.4420156301832598</v>
       </c>
       <c r="G77">
-        <f>B77-C77</f>
+        <f t="shared" si="6"/>
         <v>1.1166028801574406</v>
       </c>
       <c r="H77">
-        <f>B77-D77</f>
+        <f t="shared" si="7"/>
         <v>1.1166028815770206</v>
       </c>
       <c r="I77">
-        <f>B77-E77</f>
+        <f t="shared" si="8"/>
         <v>0.86638663655630044</v>
       </c>
       <c r="K77">
@@ -4723,15 +4723,15 @@
         <v>2.8457378203599402</v>
       </c>
       <c r="G78">
-        <f>B78-C78</f>
+        <f t="shared" si="6"/>
         <v>1.1481206957077403</v>
       </c>
       <c r="H78">
-        <f>B78-D78</f>
+        <f t="shared" si="7"/>
         <v>1.1489984676014804</v>
       </c>
       <c r="I78">
-        <f>B78-E78</f>
+        <f t="shared" si="8"/>
         <v>0.40115038126704006</v>
       </c>
       <c r="K78">
@@ -4770,15 +4770,15 @@
         <v>0.91858699582580605</v>
       </c>
       <c r="G79">
-        <f>B79-C79</f>
+        <f t="shared" si="6"/>
         <v>1.2185866637007972</v>
       </c>
       <c r="H79">
-        <f>B79-D79</f>
+        <f t="shared" si="7"/>
         <v>1.2373211730777851</v>
       </c>
       <c r="I79">
-        <f>B79-E79</f>
+        <f t="shared" si="8"/>
         <v>1.0019037166395139</v>
       </c>
       <c r="K79">
@@ -4817,15 +4817,15 @@
         <v>4.1781299230305704</v>
       </c>
       <c r="G80">
-        <f>B80-C80</f>
+        <f t="shared" si="6"/>
         <v>1.2399422262519906</v>
       </c>
       <c r="H80">
-        <f>B80-D80</f>
+        <f t="shared" si="7"/>
         <v>1.25890616843727</v>
       </c>
       <c r="I80">
-        <f>B80-E80</f>
+        <f t="shared" si="8"/>
         <v>1.2584416323416399</v>
       </c>
       <c r="K80">
@@ -4864,15 +4864,15 @@
         <v>2.7108518167511599</v>
       </c>
       <c r="G81">
-        <f>B81-C81</f>
+        <f t="shared" si="6"/>
         <v>1.27764189249572</v>
       </c>
       <c r="H81">
-        <f>B81-D81</f>
+        <f t="shared" si="7"/>
         <v>1.2831461344261901</v>
       </c>
       <c r="I81">
-        <f>B81-E81</f>
+        <f t="shared" si="8"/>
         <v>1.0355008677815603</v>
       </c>
       <c r="K81">
@@ -4911,15 +4911,15 @@
         <v>7.2793680265243701</v>
       </c>
       <c r="G82">
-        <f>B82-C82</f>
+        <f t="shared" si="6"/>
         <v>1.3412356208736007</v>
       </c>
       <c r="H82">
-        <f>B82-D82</f>
+        <f t="shared" si="7"/>
         <v>1.3260292088895005</v>
       </c>
       <c r="I82">
-        <f>B82-E82</f>
+        <f t="shared" si="8"/>
         <v>1.3185438524929403</v>
       </c>
       <c r="K82">
@@ -4958,15 +4958,15 @@
         <v>1.6098067133870999</v>
       </c>
       <c r="G83">
-        <f>B83-C83</f>
+        <f t="shared" si="6"/>
         <v>1.39654395067163</v>
       </c>
       <c r="H83">
-        <f>B83-D83</f>
+        <f t="shared" si="7"/>
         <v>1.344009582870128</v>
       </c>
       <c r="I83">
-        <f>B83-E83</f>
+        <f t="shared" si="8"/>
         <v>0.72068072232633007</v>
       </c>
       <c r="K83">
@@ -5005,15 +5005,15 @@
         <v>15.510258984503</v>
       </c>
       <c r="G84">
-        <f>B84-C84</f>
+        <f t="shared" si="6"/>
         <v>1.4554349086146008</v>
       </c>
       <c r="H84">
-        <f>B84-D84</f>
+        <f t="shared" si="7"/>
         <v>1.8718677994105999</v>
       </c>
       <c r="I84">
-        <f>B84-E84</f>
+        <f t="shared" si="8"/>
         <v>1.8718677994346997</v>
       </c>
       <c r="K84">
@@ -5052,15 +5052,15 @@
         <v>3.55873783537709</v>
       </c>
       <c r="G85">
-        <f>B85-C85</f>
+        <f t="shared" si="6"/>
         <v>1.4621669809297702</v>
       </c>
       <c r="H85">
-        <f>B85-D85</f>
+        <f t="shared" si="7"/>
         <v>1.9041789083450396</v>
       </c>
       <c r="I85">
-        <f>B85-E85</f>
+        <f t="shared" si="8"/>
         <v>1.9041789085517697</v>
       </c>
       <c r="K85">
@@ -5099,15 +5099,15 @@
         <v>4.4916957220295801</v>
       </c>
       <c r="G86">
-        <f>B86-C86</f>
+        <f t="shared" si="6"/>
         <v>1.4959794834325804</v>
       </c>
       <c r="H86">
-        <f>B86-D86</f>
+        <f t="shared" si="7"/>
         <v>1.4959795051673899</v>
       </c>
       <c r="I86">
-        <f>B86-E86</f>
+        <f t="shared" si="8"/>
         <v>1.4860133327516598</v>
       </c>
       <c r="K86">
@@ -5146,15 +5146,15 @@
         <v>2.49138654735567</v>
       </c>
       <c r="G87">
-        <f>B87-C87</f>
+        <f t="shared" si="6"/>
         <v>1.49901584076647</v>
       </c>
       <c r="H87">
-        <f>B87-D87</f>
+        <f t="shared" si="7"/>
         <v>1.4829486727029999</v>
       </c>
       <c r="I87">
-        <f>B87-E87</f>
+        <f t="shared" si="8"/>
         <v>0.81436204797374989</v>
       </c>
       <c r="K87">
@@ -5193,15 +5193,15 @@
         <v>9.2677387994514397</v>
       </c>
       <c r="G88">
-        <f>B88-C88</f>
+        <f t="shared" si="6"/>
         <v>1.5310779424489596</v>
       </c>
       <c r="H88">
-        <f>B88-D88</f>
+        <f t="shared" si="7"/>
         <v>-9.9799470021366687E-8</v>
       </c>
       <c r="I88">
-        <f>B88-E88</f>
+        <f t="shared" si="8"/>
         <v>-4.2113500242635382E-8</v>
       </c>
       <c r="K88">
@@ -5240,15 +5240,15 @@
         <v>7.6750577392332202</v>
       </c>
       <c r="G89">
-        <f>B89-C89</f>
+        <f t="shared" si="6"/>
         <v>1.5732435697673397</v>
       </c>
       <c r="H89">
-        <f>B89-D89</f>
+        <f t="shared" si="7"/>
         <v>-5.7101074002474661E-7</v>
       </c>
       <c r="I89">
-        <f>B89-E89</f>
+        <f t="shared" si="8"/>
         <v>-2.6087580096145757E-8</v>
       </c>
       <c r="K89">
@@ -5287,15 +5287,15 @@
         <v>12.749060378540699</v>
       </c>
       <c r="G90">
-        <f>B90-C90</f>
+        <f t="shared" si="6"/>
         <v>1.7522951699635012</v>
       </c>
       <c r="H90">
-        <f>B90-D90</f>
+        <f t="shared" si="7"/>
         <v>1.7472385231902017</v>
       </c>
       <c r="I90">
-        <f>B90-E90</f>
+        <f t="shared" si="8"/>
         <v>0.19675404641880156</v>
       </c>
       <c r="K90">
@@ -5334,15 +5334,15 @@
         <v>0.77447692444666605</v>
       </c>
       <c r="G91">
-        <f>B91-C91</f>
+        <f t="shared" si="6"/>
         <v>1.7601905665228021</v>
       </c>
       <c r="H91">
-        <f>B91-D91</f>
+        <f t="shared" si="7"/>
         <v>1.8108628979911661</v>
       </c>
       <c r="I91">
-        <f>B91-E91</f>
+        <f t="shared" si="8"/>
         <v>1.7798821655980441</v>
       </c>
       <c r="K91">
@@ -5381,15 +5381,15 @@
         <v>5.8014584725831604</v>
       </c>
       <c r="G92">
-        <f>B92-C92</f>
+        <f t="shared" si="6"/>
         <v>1.8285716019717002</v>
       </c>
       <c r="H92">
-        <f>B92-D92</f>
+        <f t="shared" si="7"/>
         <v>2.2677728652173306</v>
       </c>
       <c r="I92">
-        <f>B92-E92</f>
+        <f t="shared" si="8"/>
         <v>-2.025706002939387E-8</v>
       </c>
       <c r="K92">
@@ -5428,15 +5428,15 @@
         <v>10.7372951709639</v>
       </c>
       <c r="G93">
-        <f>B93-C93</f>
+        <f t="shared" si="6"/>
         <v>1.8481665996552898</v>
       </c>
       <c r="H93">
-        <f>B93-D93</f>
+        <f t="shared" si="7"/>
         <v>1.8481665996832195</v>
       </c>
       <c r="I93">
-        <f>B93-E93</f>
+        <f t="shared" si="8"/>
         <v>0.59139110212449886</v>
       </c>
       <c r="K93">
@@ -5475,15 +5475,15 @@
         <v>2.2644355677388899</v>
       </c>
       <c r="G94">
-        <f>B94-C94</f>
+        <f t="shared" si="6"/>
         <v>1.8545055414950697</v>
       </c>
       <c r="H94">
-        <f>B94-D94</f>
+        <f t="shared" si="7"/>
         <v>2.0191906672963098</v>
       </c>
       <c r="I94">
-        <f>B94-E94</f>
+        <f t="shared" si="8"/>
         <v>2.0191906679055101</v>
       </c>
       <c r="K94">
@@ -5522,15 +5522,15 @@
         <v>5.2595728560467698</v>
       </c>
       <c r="G95">
-        <f>B95-C95</f>
+        <f t="shared" si="6"/>
         <v>1.9366275153525798</v>
       </c>
       <c r="H95">
-        <f>B95-D95</f>
+        <f t="shared" si="7"/>
         <v>2.1909409255283898</v>
       </c>
       <c r="I95">
-        <f>B95-E95</f>
+        <f t="shared" si="8"/>
         <v>-2.3577119812046021E-8</v>
       </c>
       <c r="K95">
@@ -5569,15 +5569,15 @@
         <v>1.04173028330211</v>
       </c>
       <c r="G96">
-        <f>B96-C96</f>
+        <f t="shared" si="6"/>
         <v>2.0703088825705449</v>
       </c>
       <c r="H96">
-        <f>B96-D96</f>
+        <f t="shared" si="7"/>
         <v>2.070308882911279</v>
       </c>
       <c r="I96">
-        <f>B96-E96</f>
+        <f t="shared" si="8"/>
         <v>1.6431180714979998</v>
       </c>
       <c r="K96">
@@ -5616,15 +5616,15 @@
         <v>8.1564964266414997</v>
       </c>
       <c r="G97">
-        <f>B97-C97</f>
+        <f t="shared" si="6"/>
         <v>2.0928054627771804</v>
       </c>
       <c r="H97">
-        <f>B97-D97</f>
+        <f t="shared" si="7"/>
         <v>2.5155645362076005</v>
       </c>
       <c r="I97">
-        <f>B97-E97</f>
+        <f t="shared" si="8"/>
         <v>2.4061273666284002</v>
       </c>
       <c r="K97">
@@ -5663,15 +5663,15 @@
         <v>3.39785792665021</v>
       </c>
       <c r="G98">
-        <f>B98-C98</f>
+        <f t="shared" ref="G98:G124" si="9">B98-C98</f>
         <v>2.1193289617809699</v>
       </c>
       <c r="H98">
-        <f>B98-D98</f>
+        <f t="shared" ref="H98:H124" si="10">B98-D98</f>
         <v>2.1022433824394802</v>
       </c>
       <c r="I98">
-        <f>B98-E98</f>
+        <f t="shared" ref="I98:I124" si="11">B98-E98</f>
         <v>0.75347356694549994</v>
       </c>
       <c r="K98">
@@ -5710,15 +5710,15 @@
         <v>2.7581554399268802</v>
       </c>
       <c r="G99">
-        <f>B99-C99</f>
+        <f t="shared" si="9"/>
         <v>2.1548617740536997</v>
       </c>
       <c r="H99">
-        <f>B99-D99</f>
+        <f t="shared" si="10"/>
         <v>2.5093299537476796</v>
       </c>
       <c r="I99">
-        <f>B99-E99</f>
+        <f t="shared" si="11"/>
         <v>2.5093299540870095</v>
       </c>
       <c r="K99">
@@ -5757,15 +5757,15 @@
         <v>2.6895784490363299</v>
       </c>
       <c r="G100">
-        <f>B100-C100</f>
+        <f t="shared" si="9"/>
         <v>2.2188102386519799</v>
       </c>
       <c r="H100">
-        <f>B100-D100</f>
+        <f t="shared" si="10"/>
         <v>2.2188102386204198</v>
       </c>
       <c r="I100">
-        <f>B100-E100</f>
+        <f t="shared" si="11"/>
         <v>0.64596124560550994</v>
       </c>
       <c r="K100">
@@ -5804,15 +5804,15 @@
         <v>6.8992076923583703</v>
       </c>
       <c r="G101">
-        <f>B101-C101</f>
+        <f t="shared" si="9"/>
         <v>2.3262645796844401</v>
       </c>
       <c r="H101">
-        <f>B101-D101</f>
+        <f t="shared" si="10"/>
         <v>-3.8635949994869634E-7</v>
       </c>
       <c r="I101">
-        <f>B101-E101</f>
+        <f t="shared" si="11"/>
         <v>-2.764819040379507E-8</v>
       </c>
       <c r="K101">
@@ -5851,15 +5851,15 @@
         <v>9.9784163484907005</v>
       </c>
       <c r="G102">
-        <f>B102-C102</f>
+        <f t="shared" si="9"/>
         <v>2.4667308389776998</v>
       </c>
       <c r="H102">
-        <f>B102-D102</f>
+        <f t="shared" si="10"/>
         <v>2.7182072541256801</v>
       </c>
       <c r="I102">
-        <f>B102-E102</f>
+        <f t="shared" si="11"/>
         <v>2.7182072542193989</v>
       </c>
       <c r="K102">
@@ -5898,15 +5898,15 @@
         <v>6.4127301990963002</v>
       </c>
       <c r="G103">
-        <f>B103-C103</f>
+        <f t="shared" si="9"/>
         <v>2.4707315143571797</v>
       </c>
       <c r="H103">
-        <f>B103-D103</f>
+        <f t="shared" si="10"/>
         <v>2.4182988707776705</v>
       </c>
       <c r="I103">
-        <f>B103-E103</f>
+        <f t="shared" si="11"/>
         <v>0.99936505367540995</v>
       </c>
       <c r="K103">
@@ -5945,15 +5945,15 @@
         <v>12.867231787809899</v>
       </c>
       <c r="G104">
-        <f>B104-C104</f>
+        <f t="shared" si="9"/>
         <v>2.4762262535315998</v>
       </c>
       <c r="H104">
-        <f>B104-D104</f>
+        <f t="shared" si="10"/>
         <v>2.4762262535366997</v>
       </c>
       <c r="I104">
-        <f>B104-E104</f>
+        <f t="shared" si="11"/>
         <v>0.77720455521370013</v>
       </c>
       <c r="K104">
@@ -5992,15 +5992,15 @@
         <v>6.3867656687852801</v>
       </c>
       <c r="G105">
-        <f>B105-C105</f>
+        <f t="shared" si="9"/>
         <v>2.6048856987925095</v>
       </c>
       <c r="H105">
-        <f>B105-D105</f>
+        <f t="shared" si="10"/>
         <v>2.9083129152105198</v>
       </c>
       <c r="I105">
-        <f>B105-E105</f>
+        <f t="shared" si="11"/>
         <v>-2.8004640384438062E-8</v>
       </c>
       <c r="K105">
@@ -6039,15 +6039,15 @@
         <v>2.6359554294454002</v>
       </c>
       <c r="G106">
-        <f>B106-C106</f>
+        <f t="shared" si="9"/>
         <v>2.69054609451655</v>
       </c>
       <c r="H106">
-        <f>B106-D106</f>
+        <f t="shared" si="10"/>
         <v>2.9305282106029602</v>
       </c>
       <c r="I106">
-        <f>B106-E106</f>
+        <f t="shared" si="11"/>
         <v>2.9305282105041899</v>
       </c>
       <c r="K106">
@@ -6086,15 +6086,15 @@
         <v>4.0103099992767497</v>
       </c>
       <c r="G107">
-        <f>B107-C107</f>
+        <f t="shared" si="9"/>
         <v>2.6945657147722795</v>
       </c>
       <c r="H107">
-        <f>B107-D107</f>
+        <f t="shared" si="10"/>
         <v>2.70005281354769</v>
       </c>
       <c r="I107">
-        <f>B107-E107</f>
+        <f t="shared" si="11"/>
         <v>2.6994435547526701</v>
       </c>
       <c r="K107">
@@ -6133,15 +6133,15 @@
         <v>7.3321763543967897</v>
       </c>
       <c r="G108">
-        <f>B108-C108</f>
+        <f t="shared" si="9"/>
         <v>2.7331020962406303</v>
       </c>
       <c r="H108">
-        <f>B108-D108</f>
+        <f t="shared" si="10"/>
         <v>2.7487966819609007</v>
       </c>
       <c r="I108">
-        <f>B108-E108</f>
+        <f t="shared" si="11"/>
         <v>2.7491776965228105</v>
       </c>
       <c r="K108">
@@ -6180,15 +6180,15 @@
         <v>7.9223361278302002</v>
       </c>
       <c r="G109">
-        <f>B109-C109</f>
+        <f t="shared" si="9"/>
         <v>2.77800402053784</v>
       </c>
       <c r="H109">
-        <f>B109-D109</f>
+        <f t="shared" si="10"/>
         <v>3.1723666738486003</v>
       </c>
       <c r="I109">
-        <f>B109-E109</f>
+        <f t="shared" si="11"/>
         <v>-2.4485720118150311E-8</v>
       </c>
       <c r="K109">
@@ -6227,15 +6227,15 @@
         <v>2.99653639262212</v>
       </c>
       <c r="G110">
-        <f>B110-C110</f>
+        <f t="shared" si="9"/>
         <v>2.86383160352911</v>
       </c>
       <c r="H110">
-        <f>B110-D110</f>
+        <f t="shared" si="10"/>
         <v>3.2458531423525301</v>
       </c>
       <c r="I110">
-        <f>B110-E110</f>
+        <f t="shared" si="11"/>
         <v>2.9811712066914002</v>
       </c>
       <c r="K110">
@@ -6274,15 +6274,15 @@
         <v>4.1378920890564803</v>
       </c>
       <c r="G111">
-        <f>B111-C111</f>
+        <f t="shared" si="9"/>
         <v>2.9684867512384203</v>
       </c>
       <c r="H111">
-        <f>B111-D111</f>
+        <f t="shared" si="10"/>
         <v>2.9684867512384203</v>
       </c>
       <c r="I111">
-        <f>B111-E111</f>
+        <f t="shared" si="11"/>
         <v>1.0505225987279498</v>
       </c>
       <c r="K111">
@@ -6321,15 +6321,15 @@
         <v>3.35041607130221</v>
       </c>
       <c r="G112">
-        <f>B112-C112</f>
+        <f t="shared" si="9"/>
         <v>3.0598148587514102</v>
       </c>
       <c r="H112">
-        <f>B112-D112</f>
+        <f t="shared" si="10"/>
         <v>3.4286402189493401</v>
       </c>
       <c r="I112">
-        <f>B112-E112</f>
+        <f t="shared" si="11"/>
         <v>3.1263313661387602</v>
       </c>
       <c r="K112">
@@ -6368,15 +6368,15 @@
         <v>1.5996721813613199</v>
       </c>
       <c r="G113">
-        <f>B113-C113</f>
+        <f t="shared" si="9"/>
         <v>3.2136804246886204</v>
       </c>
       <c r="H113">
-        <f>B113-D113</f>
+        <f t="shared" si="10"/>
         <v>3.5439449304267905</v>
       </c>
       <c r="I113">
-        <f>B113-E113</f>
+        <f t="shared" si="11"/>
         <v>3.2569837779240105</v>
       </c>
       <c r="K113">
@@ -6415,15 +6415,15 @@
         <v>4.8453397335597002</v>
       </c>
       <c r="G114">
-        <f>B114-C114</f>
+        <f t="shared" si="9"/>
         <v>3.4277716524422797</v>
       </c>
       <c r="H114">
-        <f>B114-D114</f>
+        <f t="shared" si="10"/>
         <v>3.6239892969899499</v>
       </c>
       <c r="I114">
-        <f>B114-E114</f>
+        <f t="shared" si="11"/>
         <v>3.4575500336153597</v>
       </c>
       <c r="K114">
@@ -6462,15 +6462,15 @@
         <v>1.31813808341707</v>
       </c>
       <c r="G115">
-        <f>B115-C115</f>
+        <f t="shared" si="9"/>
         <v>3.5486979299328203</v>
       </c>
       <c r="H115">
-        <f>B115-D115</f>
+        <f t="shared" si="10"/>
         <v>3.5501617033608497</v>
       </c>
       <c r="I115">
-        <f>B115-E115</f>
+        <f t="shared" si="11"/>
         <v>3.54788054222099</v>
       </c>
       <c r="K115">
@@ -6509,15 +6509,15 @@
         <v>1.9600517755129501</v>
       </c>
       <c r="G116">
-        <f>B116-C116</f>
+        <f t="shared" si="9"/>
         <v>3.7961424228673399</v>
       </c>
       <c r="H116">
-        <f>B116-D116</f>
+        <f t="shared" si="10"/>
         <v>4.0078915479352002</v>
       </c>
       <c r="I116">
-        <f>B116-E116</f>
+        <f t="shared" si="11"/>
         <v>3.8177717636653901</v>
       </c>
       <c r="K116">
@@ -6556,15 +6556,15 @@
         <v>4.4298617472926001</v>
       </c>
       <c r="G117">
-        <f>B117-C117</f>
+        <f t="shared" si="9"/>
         <v>3.8974233793422393</v>
       </c>
       <c r="H117">
-        <f>B117-D117</f>
+        <f t="shared" si="10"/>
         <v>4.3050506160909192</v>
       </c>
       <c r="I117">
-        <f>B117-E117</f>
+        <f t="shared" si="11"/>
         <v>3.9962127030763295</v>
       </c>
       <c r="K117">
@@ -6603,15 +6603,15 @@
         <v>8.8625486863226897</v>
       </c>
       <c r="G118">
-        <f>B118-C118</f>
+        <f t="shared" si="9"/>
         <v>4.5274120561166811</v>
       </c>
       <c r="H118">
-        <f>B118-D118</f>
+        <f t="shared" si="10"/>
         <v>4.5828239163034912</v>
       </c>
       <c r="I118">
-        <f>B118-E118</f>
+        <f t="shared" si="11"/>
         <v>4.5600238284180108</v>
       </c>
       <c r="K118">
@@ -6650,15 +6650,15 @@
         <v>2.9819946262085102</v>
       </c>
       <c r="G119">
-        <f>B119-C119</f>
+        <f t="shared" si="9"/>
         <v>4.7798482446853097</v>
       </c>
       <c r="H119">
-        <f>B119-D119</f>
+        <f t="shared" si="10"/>
         <v>4.8281829116473602</v>
       </c>
       <c r="I119">
-        <f>B119-E119</f>
+        <f t="shared" si="11"/>
         <v>4.81681719949753</v>
       </c>
       <c r="K119">
@@ -6697,15 +6697,15 @@
         <v>12.7871431551493</v>
       </c>
       <c r="G120">
-        <f>B120-C120</f>
+        <f t="shared" si="9"/>
         <v>4.9260451928437003</v>
       </c>
       <c r="H120">
-        <f>B120-D120</f>
+        <f t="shared" si="10"/>
         <v>5.1229004396394</v>
       </c>
       <c r="I120">
-        <f>B120-E120</f>
+        <f t="shared" si="11"/>
         <v>5.1228999473672996</v>
       </c>
       <c r="K120">
@@ -6744,15 +6744,15 @@
         <v>3.5950327389638002</v>
       </c>
       <c r="G121">
-        <f>B121-C121</f>
+        <f t="shared" si="9"/>
         <v>5.81122883105827</v>
       </c>
       <c r="H121">
-        <f>B121-D121</f>
+        <f t="shared" si="10"/>
         <v>5.9708461472279897</v>
       </c>
       <c r="I121">
-        <f>B121-E121</f>
+        <f t="shared" si="11"/>
         <v>5.9803673264855099</v>
       </c>
       <c r="K121">
@@ -6791,15 +6791,15 @@
         <v>12.084393302795201</v>
       </c>
       <c r="G122">
-        <f>B122-C122</f>
+        <f t="shared" si="9"/>
         <v>5.9891635065702005</v>
       </c>
       <c r="H122">
-        <f>B122-D122</f>
+        <f t="shared" si="10"/>
         <v>4.2899105737535006</v>
       </c>
       <c r="I122">
-        <f>B122-E122</f>
+        <f t="shared" si="11"/>
         <v>5.8538206766881</v>
       </c>
       <c r="K122">
@@ -6838,15 +6838,15 @@
         <v>6.2849163358538096</v>
       </c>
       <c r="G123">
-        <f>B123-C123</f>
+        <f t="shared" si="9"/>
         <v>6.1801315996433894</v>
       </c>
       <c r="H123">
-        <f>B123-D123</f>
+        <f t="shared" si="10"/>
         <v>6.3417565514464096</v>
       </c>
       <c r="I123">
-        <f>B123-E123</f>
+        <f t="shared" si="11"/>
         <v>6.2292290717758902</v>
       </c>
       <c r="K123">
@@ -6885,15 +6885,15 @@
         <v>4.3405456983563599</v>
       </c>
       <c r="G124">
-        <f>B124-C124</f>
+        <f t="shared" si="9"/>
         <v>7.1794886150346091</v>
       </c>
       <c r="H124">
-        <f>B124-D124</f>
+        <f t="shared" si="10"/>
         <v>7.2326875023197896</v>
       </c>
       <c r="I124">
-        <f>B124-E124</f>
+        <f t="shared" si="11"/>
         <v>5.5514019298477297</v>
       </c>
       <c r="K124">
@@ -6968,15 +6968,15 @@
       </c>
       <c r="F131" s="6"/>
       <c r="G131" s="6">
-        <f>B131-C131</f>
+        <f t="shared" ref="G131:G156" si="12">B131-C131</f>
         <v>4.9554443742945986E-2</v>
       </c>
       <c r="H131" s="6">
-        <f>B131-D131</f>
+        <f t="shared" ref="H131:H156" si="13">B131-D131</f>
         <v>5.9734466658166008E-2</v>
       </c>
       <c r="I131" s="6">
-        <f>B131-E131</f>
+        <f t="shared" ref="I131:I156" si="14">B131-E131</f>
         <v>6.1185843381713012E-2</v>
       </c>
       <c r="J131" s="6"/>
@@ -7017,15 +7017,15 @@
       </c>
       <c r="F132" s="6"/>
       <c r="G132" s="6">
-        <f>B132-C132</f>
+        <f t="shared" si="12"/>
         <v>0.25697413866227703</v>
       </c>
       <c r="H132" s="6">
-        <f>B132-D132</f>
+        <f t="shared" si="13"/>
         <v>0.31559420809095606</v>
       </c>
       <c r="I132" s="6">
-        <f>B132-E132</f>
+        <f t="shared" si="14"/>
         <v>0.19345364784671104</v>
       </c>
       <c r="J132" s="6"/>
@@ -7066,15 +7066,15 @@
       </c>
       <c r="F133" s="3"/>
       <c r="G133" s="3">
-        <f>B133-C133</f>
+        <f t="shared" si="12"/>
         <v>0.29096071793934009</v>
       </c>
       <c r="H133" s="3">
-        <f>B133-D133</f>
+        <f t="shared" si="13"/>
         <v>0.35936321839855001</v>
       </c>
       <c r="I133" s="3">
-        <f>B133-E133</f>
+        <f t="shared" si="14"/>
         <v>0.45833770468547907</v>
       </c>
       <c r="J133" s="3"/>
@@ -7115,15 +7115,15 @@
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3">
-        <f>B134-C134</f>
+        <f t="shared" si="12"/>
         <v>0.59417489890359709</v>
       </c>
       <c r="H134" s="3">
-        <f>B134-D134</f>
+        <f t="shared" si="13"/>
         <v>0.59070797974214506</v>
       </c>
       <c r="I134" s="3">
-        <f>B134-E134</f>
+        <f t="shared" si="14"/>
         <v>0.15003892505271299</v>
       </c>
       <c r="J134" s="3"/>
@@ -7164,15 +7164,15 @@
       </c>
       <c r="F135" s="6"/>
       <c r="G135" s="6">
-        <f>B135-C135</f>
+        <f t="shared" si="12"/>
         <v>0.60687350257335027</v>
       </c>
       <c r="H135" s="6">
-        <f>B135-D135</f>
+        <f t="shared" si="13"/>
         <v>0.59941754435258021</v>
       </c>
       <c r="I135" s="6">
-        <f>B135-E135</f>
+        <f t="shared" si="14"/>
         <v>0.22885094596774014</v>
       </c>
       <c r="J135" s="6"/>
@@ -7213,15 +7213,15 @@
       </c>
       <c r="F136" s="3"/>
       <c r="G136" s="3">
-        <f>B136-C136</f>
+        <f t="shared" si="12"/>
         <v>0.61515465602764996</v>
       </c>
       <c r="H136" s="3">
-        <f>B136-D136</f>
+        <f t="shared" si="13"/>
         <v>0.58544519747644008</v>
       </c>
       <c r="I136" s="3">
-        <f>B136-E136</f>
+        <f t="shared" si="14"/>
         <v>0.73040216763326993</v>
       </c>
       <c r="J136" s="3"/>
@@ -7262,15 +7262,15 @@
       </c>
       <c r="F137" s="6"/>
       <c r="G137" s="6">
-        <f>B137-C137</f>
+        <f t="shared" si="12"/>
         <v>0.65909819953674997</v>
       </c>
       <c r="H137" s="6">
-        <f>B137-D137</f>
+        <f t="shared" si="13"/>
         <v>0.65909820927549001</v>
       </c>
       <c r="I137" s="6">
-        <f>B137-E137</f>
+        <f t="shared" si="14"/>
         <v>0.58922305354449001</v>
       </c>
       <c r="J137" s="6"/>
@@ -7311,15 +7311,15 @@
       </c>
       <c r="F138" s="3"/>
       <c r="G138" s="3">
-        <f>B138-C138</f>
+        <f t="shared" si="12"/>
         <v>0.740734274431609</v>
       </c>
       <c r="H138" s="3">
-        <f>B138-D138</f>
+        <f t="shared" si="13"/>
         <v>0.75011102528013895</v>
       </c>
       <c r="I138" s="3">
-        <f>B138-E138</f>
+        <f t="shared" si="14"/>
         <v>0.79698817912868092</v>
       </c>
       <c r="J138" s="3"/>
@@ -7360,15 +7360,15 @@
       </c>
       <c r="F139" s="6"/>
       <c r="G139" s="6">
-        <f>B139-C139</f>
+        <f t="shared" si="12"/>
         <v>1.0577794354669792</v>
       </c>
       <c r="H139" s="6">
-        <f>B139-D139</f>
+        <f t="shared" si="13"/>
         <v>1.0571172668002011</v>
       </c>
       <c r="I139" s="6">
-        <f>B139-E139</f>
+        <f t="shared" si="14"/>
         <v>0.29812617011669018</v>
       </c>
       <c r="J139" s="6"/>
@@ -7409,15 +7409,15 @@
       </c>
       <c r="F140" s="3"/>
       <c r="G140" s="3">
-        <f>B140-C140</f>
+        <f t="shared" si="12"/>
         <v>1.0609351857989697</v>
       </c>
       <c r="H140" s="3">
-        <f>B140-D140</f>
+        <f t="shared" si="13"/>
         <v>1.0569167311667798</v>
       </c>
       <c r="I140" s="3">
-        <f>B140-E140</f>
+        <f t="shared" si="14"/>
         <v>0.80652722365395979</v>
       </c>
       <c r="J140" s="3"/>
@@ -7458,15 +7458,15 @@
       </c>
       <c r="F141" s="6"/>
       <c r="G141" s="6">
-        <f>B141-C141</f>
+        <f t="shared" si="12"/>
         <v>1.1166028801574406</v>
       </c>
       <c r="H141" s="6">
-        <f>B141-D141</f>
+        <f t="shared" si="13"/>
         <v>1.1166028815770206</v>
       </c>
       <c r="I141" s="6">
-        <f>B141-E141</f>
+        <f t="shared" si="14"/>
         <v>0.86638663655630044</v>
       </c>
       <c r="J141" s="6"/>
@@ -7507,15 +7507,15 @@
       </c>
       <c r="F142" s="3"/>
       <c r="G142" s="3">
-        <f>B142-C142</f>
+        <f t="shared" si="12"/>
         <v>1.1481206957077403</v>
       </c>
       <c r="H142" s="3">
-        <f>B142-D142</f>
+        <f t="shared" si="13"/>
         <v>1.1489984676014804</v>
       </c>
       <c r="I142" s="3">
-        <f>B142-E142</f>
+        <f t="shared" si="14"/>
         <v>0.40115038126704006</v>
       </c>
       <c r="J142" s="3"/>
@@ -7556,15 +7556,15 @@
       </c>
       <c r="F143" s="6"/>
       <c r="G143" s="6">
-        <f>B143-C143</f>
+        <f t="shared" si="12"/>
         <v>1.2185866637007972</v>
       </c>
       <c r="H143" s="6">
-        <f>B143-D143</f>
+        <f t="shared" si="13"/>
         <v>1.2373211730777851</v>
       </c>
       <c r="I143" s="6">
-        <f>B143-E143</f>
+        <f t="shared" si="14"/>
         <v>1.0019037166395139</v>
       </c>
       <c r="J143" s="6"/>
@@ -7605,15 +7605,15 @@
       </c>
       <c r="F144" s="6"/>
       <c r="G144" s="6">
-        <f>B144-C144</f>
+        <f t="shared" si="12"/>
         <v>1.27764189249572</v>
       </c>
       <c r="H144" s="6">
-        <f>B144-D144</f>
+        <f t="shared" si="13"/>
         <v>1.2831461344261901</v>
       </c>
       <c r="I144" s="6">
-        <f>B144-E144</f>
+        <f t="shared" si="14"/>
         <v>1.0355008677815603</v>
       </c>
       <c r="J144" s="6"/>
@@ -7654,15 +7654,15 @@
       </c>
       <c r="F145" s="6"/>
       <c r="G145" s="6">
-        <f>B145-C145</f>
+        <f t="shared" si="12"/>
         <v>1.39654395067163</v>
       </c>
       <c r="H145" s="6">
-        <f>B145-D145</f>
+        <f t="shared" si="13"/>
         <v>1.344009582870128</v>
       </c>
       <c r="I145" s="6">
-        <f>B145-E145</f>
+        <f t="shared" si="14"/>
         <v>0.72068072232633007</v>
       </c>
       <c r="J145" s="6"/>
@@ -7703,15 +7703,15 @@
       </c>
       <c r="F146" s="3"/>
       <c r="G146" s="3">
-        <f>B146-C146</f>
+        <f t="shared" si="12"/>
         <v>1.4959794834325804</v>
       </c>
       <c r="H146" s="3">
-        <f>B146-D146</f>
+        <f t="shared" si="13"/>
         <v>1.4959795051673899</v>
       </c>
       <c r="I146" s="3">
-        <f>B146-E146</f>
+        <f t="shared" si="14"/>
         <v>1.4860133327516598</v>
       </c>
       <c r="J146" s="3"/>
@@ -7752,15 +7752,15 @@
       </c>
       <c r="F147" s="6"/>
       <c r="G147" s="6">
-        <f>B147-C147</f>
+        <f t="shared" si="12"/>
         <v>1.49901584076647</v>
       </c>
       <c r="H147" s="6">
-        <f>B147-D147</f>
+        <f t="shared" si="13"/>
         <v>1.4829486727029999</v>
       </c>
       <c r="I147" s="6">
-        <f>B147-E147</f>
+        <f t="shared" si="14"/>
         <v>0.81436204797374989</v>
       </c>
       <c r="J147" s="6"/>
@@ -7801,15 +7801,15 @@
       </c>
       <c r="F148" s="3"/>
       <c r="G148" s="3">
-        <f>B148-C148</f>
+        <f t="shared" si="12"/>
         <v>1.7522951699635012</v>
       </c>
       <c r="H148" s="3">
-        <f>B148-D148</f>
+        <f t="shared" si="13"/>
         <v>1.7472385231902017</v>
       </c>
       <c r="I148" s="3">
-        <f>B148-E148</f>
+        <f t="shared" si="14"/>
         <v>0.19675404641880156</v>
       </c>
       <c r="J148" s="3"/>
@@ -7850,15 +7850,15 @@
       </c>
       <c r="F149" s="6"/>
       <c r="G149" s="6">
-        <f>B149-C149</f>
+        <f t="shared" si="12"/>
         <v>1.7601905665228021</v>
       </c>
       <c r="H149" s="6">
-        <f>B149-D149</f>
+        <f t="shared" si="13"/>
         <v>1.8108628979911661</v>
       </c>
       <c r="I149" s="6">
-        <f>B149-E149</f>
+        <f t="shared" si="14"/>
         <v>1.7798821655980441</v>
       </c>
       <c r="J149" s="6"/>
@@ -7899,15 +7899,15 @@
       </c>
       <c r="F150" s="6"/>
       <c r="G150" s="6">
-        <f>B150-C150</f>
+        <f t="shared" si="12"/>
         <v>1.8481665996552898</v>
       </c>
       <c r="H150" s="6">
-        <f>B150-D150</f>
+        <f t="shared" si="13"/>
         <v>1.8481665996832195</v>
       </c>
       <c r="I150" s="6">
-        <f>B150-E150</f>
+        <f t="shared" si="14"/>
         <v>0.59139110212449886</v>
       </c>
       <c r="J150" s="6"/>
@@ -7948,15 +7948,15 @@
       </c>
       <c r="F151" s="3"/>
       <c r="G151" s="3">
-        <f>B151-C151</f>
+        <f t="shared" si="12"/>
         <v>2.0703088825705449</v>
       </c>
       <c r="H151" s="3">
-        <f>B151-D151</f>
+        <f t="shared" si="13"/>
         <v>2.070308882911279</v>
       </c>
       <c r="I151" s="3">
-        <f>B151-E151</f>
+        <f t="shared" si="14"/>
         <v>1.6431180714979998</v>
       </c>
       <c r="J151" s="3"/>
@@ -7997,15 +7997,15 @@
       </c>
       <c r="F152" s="3"/>
       <c r="G152" s="3">
-        <f>B152-C152</f>
+        <f t="shared" si="12"/>
         <v>2.1193289617809699</v>
       </c>
       <c r="H152" s="3">
-        <f>B152-D152</f>
+        <f t="shared" si="13"/>
         <v>2.1022433824394802</v>
       </c>
       <c r="I152" s="3">
-        <f>B152-E152</f>
+        <f t="shared" si="14"/>
         <v>0.75347356694549994</v>
       </c>
       <c r="J152" s="3"/>
@@ -8046,15 +8046,15 @@
       </c>
       <c r="F153" s="3"/>
       <c r="G153" s="3">
-        <f>B153-C153</f>
+        <f t="shared" si="12"/>
         <v>2.2188102386519799</v>
       </c>
       <c r="H153" s="3">
-        <f>B153-D153</f>
+        <f t="shared" si="13"/>
         <v>2.2188102386204198</v>
       </c>
       <c r="I153" s="3">
-        <f>B153-E153</f>
+        <f t="shared" si="14"/>
         <v>0.64596124560550994</v>
       </c>
       <c r="J153" s="3"/>
@@ -8095,15 +8095,15 @@
       </c>
       <c r="F154" s="6"/>
       <c r="G154" s="6">
-        <f>B154-C154</f>
+        <f t="shared" si="12"/>
         <v>2.4707315143571797</v>
       </c>
       <c r="H154" s="6">
-        <f>B154-D154</f>
+        <f t="shared" si="13"/>
         <v>2.4182988707776705</v>
       </c>
       <c r="I154" s="6">
-        <f>B154-E154</f>
+        <f t="shared" si="14"/>
         <v>0.99936505367540995</v>
       </c>
       <c r="J154" s="6"/>
@@ -8144,15 +8144,15 @@
       </c>
       <c r="F155" s="3"/>
       <c r="G155" s="3">
-        <f>B155-C155</f>
+        <f t="shared" si="12"/>
         <v>2.4762262535315998</v>
       </c>
       <c r="H155" s="3">
-        <f>B155-D155</f>
+        <f t="shared" si="13"/>
         <v>2.4762262535366997</v>
       </c>
       <c r="I155" s="3">
-        <f>B155-E155</f>
+        <f t="shared" si="14"/>
         <v>0.77720455521370013</v>
       </c>
       <c r="J155" s="3"/>
@@ -8193,15 +8193,15 @@
       </c>
       <c r="F156" s="6"/>
       <c r="G156" s="6">
-        <f>B156-C156</f>
+        <f t="shared" si="12"/>
         <v>2.9684867512384203</v>
       </c>
       <c r="H156" s="6">
-        <f>B156-D156</f>
+        <f t="shared" si="13"/>
         <v>2.9684867512384203</v>
       </c>
       <c r="I156" s="6">
-        <f>B156-E156</f>
+        <f t="shared" si="14"/>
         <v>1.0505225987279498</v>
       </c>
       <c r="J156" s="6"/>
@@ -8229,19 +8229,19 @@
         <v>18</v>
       </c>
       <c r="B158">
-        <f t="shared" ref="B158:F158" si="0">SUM(B131:B156)</f>
+        <f t="shared" ref="B158:E158" si="15">SUM(B131:B156)</f>
         <v>105.06388634983594</v>
       </c>
       <c r="C158">
-        <f t="shared" si="0"/>
+        <f t="shared" si="15"/>
         <v>70.294610551547834</v>
       </c>
       <c r="D158">
-        <f t="shared" si="0"/>
+        <f t="shared" si="15"/>
         <v>70.260731684782954</v>
       </c>
       <c r="E158">
-        <f t="shared" si="0"/>
+        <f t="shared" si="15"/>
         <v>85.987082377720938</v>
       </c>
       <c r="G158">
@@ -8272,15 +8272,15 @@
       </c>
       <c r="F164" s="6"/>
       <c r="G164" s="6">
-        <f>B164-C164</f>
+        <f t="shared" ref="G164:G195" si="16">B164-C164</f>
         <v>4.1461741502801797E-4</v>
       </c>
       <c r="H164" s="6">
-        <f>B164-D164</f>
+        <f t="shared" ref="H164:H195" si="17">B164-D164</f>
         <v>7.820534597873019E-3</v>
       </c>
       <c r="I164" s="6">
-        <f>B164-E164</f>
+        <f t="shared" ref="I164:I195" si="18">B164-E164</f>
         <v>8.100836512878018E-3</v>
       </c>
       <c r="J164" s="6"/>
@@ -8321,15 +8321,15 @@
       </c>
       <c r="F165" s="3"/>
       <c r="G165" s="3">
-        <f>B165-C165</f>
+        <f t="shared" si="16"/>
         <v>2.7907417409989976E-3</v>
       </c>
       <c r="H165" s="3">
-        <f>B165-D165</f>
+        <f t="shared" si="17"/>
         <v>5.6777939163947994E-2</v>
       </c>
       <c r="I165" s="3">
-        <f>B165-E165</f>
+        <f t="shared" si="18"/>
         <v>5.6777939164319002E-2</v>
       </c>
       <c r="J165" s="3"/>
@@ -8370,15 +8370,15 @@
       </c>
       <c r="F166" s="6"/>
       <c r="G166" s="6">
-        <f>B166-C166</f>
+        <f t="shared" si="16"/>
         <v>1.7898866411672987E-2</v>
       </c>
       <c r="H166" s="6">
-        <f>B166-D166</f>
+        <f t="shared" si="17"/>
         <v>4.8883946082797003E-2</v>
       </c>
       <c r="I166" s="6">
-        <f>B166-E166</f>
+        <f t="shared" si="18"/>
         <v>4.8883946089082975E-2</v>
       </c>
       <c r="J166" s="6"/>
@@ -8419,15 +8419,15 @@
       </c>
       <c r="F167" s="3"/>
       <c r="G167" s="3">
-        <f>B167-C167</f>
+        <f t="shared" si="16"/>
         <v>4.3800243886255516E-2</v>
       </c>
       <c r="H167" s="3">
-        <f>B167-D167</f>
+        <f t="shared" si="17"/>
         <v>4.3080685816418107E-2</v>
       </c>
       <c r="I167" s="3">
-        <f>B167-E167</f>
+        <f t="shared" si="18"/>
         <v>5.6112951691501017E-2</v>
       </c>
       <c r="J167" s="3"/>
@@ -8468,15 +8468,15 @@
       </c>
       <c r="F168" s="3"/>
       <c r="G168" s="3">
-        <f>B168-C168</f>
+        <f t="shared" si="16"/>
         <v>5.8249986022730127E-2</v>
       </c>
       <c r="H168" s="3">
-        <f>B168-D168</f>
+        <f t="shared" si="17"/>
         <v>-1.9374827964213637E-7</v>
       </c>
       <c r="I168" s="3">
-        <f>B168-E168</f>
+        <f t="shared" si="18"/>
         <v>-1.4600270326070586E-8</v>
       </c>
       <c r="J168" s="3"/>
@@ -8517,15 +8517,15 @@
       </c>
       <c r="F169" s="6"/>
       <c r="G169" s="6">
-        <f>B169-C169</f>
+        <f t="shared" si="16"/>
         <v>9.1788735559520995E-2</v>
       </c>
       <c r="H169" s="6">
-        <f>B169-D169</f>
+        <f t="shared" si="17"/>
         <v>0.18480171640793</v>
       </c>
       <c r="I169" s="6">
-        <f>B169-E169</f>
+        <f t="shared" si="18"/>
         <v>0.18480171640853701</v>
       </c>
       <c r="J169" s="6"/>
@@ -8566,15 +8566,15 @@
       </c>
       <c r="F170" s="3"/>
       <c r="G170" s="3">
-        <f>B170-C170</f>
+        <f t="shared" si="16"/>
         <v>0.13378400365559401</v>
       </c>
       <c r="H170" s="3">
-        <f>B170-D170</f>
+        <f t="shared" si="17"/>
         <v>0.19076573925979401</v>
       </c>
       <c r="I170" s="3">
-        <f>B170-E170</f>
+        <f t="shared" si="18"/>
         <v>0.19925427480046898</v>
       </c>
       <c r="J170" s="3"/>
@@ -8615,15 +8615,15 @@
       </c>
       <c r="F171" s="6"/>
       <c r="G171" s="6">
-        <f>B171-C171</f>
+        <f t="shared" si="16"/>
         <v>0.16979519445157987</v>
       </c>
       <c r="H171" s="6">
-        <f>B171-D171</f>
+        <f t="shared" si="17"/>
         <v>-1.1924428999776637E-7</v>
       </c>
       <c r="I171" s="6">
-        <f>B171-E171</f>
+        <f t="shared" si="18"/>
         <v>-4.086530225322349E-9</v>
       </c>
       <c r="J171" s="6"/>
@@ -8664,15 +8664,15 @@
       </c>
       <c r="F172" s="3"/>
       <c r="G172" s="3">
-        <f>B172-C172</f>
+        <f t="shared" si="16"/>
         <v>0.211976560724978</v>
       </c>
       <c r="H172" s="3">
-        <f>B172-D172</f>
+        <f t="shared" si="17"/>
         <v>0.21177759993582201</v>
       </c>
       <c r="I172" s="3">
-        <f>B172-E172</f>
+        <f t="shared" si="18"/>
         <v>0.21244687559015801</v>
       </c>
       <c r="J172" s="3"/>
@@ -8713,15 +8713,15 @@
       </c>
       <c r="F173" s="6"/>
       <c r="G173" s="6">
-        <f>B173-C173</f>
+        <f t="shared" si="16"/>
         <v>0.21361449185714199</v>
       </c>
       <c r="H173" s="6">
-        <f>B173-D173</f>
+        <f t="shared" si="17"/>
         <v>0.23641846300936997</v>
       </c>
       <c r="I173" s="6">
-        <f>B173-E173</f>
+        <f t="shared" si="18"/>
         <v>0.23641846300904398</v>
       </c>
       <c r="J173" s="6"/>
@@ -8762,15 +8762,15 @@
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3">
-        <f>B174-C174</f>
+        <f t="shared" si="16"/>
         <v>0.22133064239024014</v>
       </c>
       <c r="H174" s="3">
-        <f>B174-D174</f>
+        <f t="shared" si="17"/>
         <v>0.21695407132754996</v>
       </c>
       <c r="I174" s="3">
-        <f>B174-E174</f>
+        <f t="shared" si="18"/>
         <v>0.22446271719589017</v>
       </c>
       <c r="J174" s="3"/>
@@ -8811,15 +8811,15 @@
       </c>
       <c r="F175" s="6"/>
       <c r="G175" s="6">
-        <f>B175-C175</f>
+        <f t="shared" si="16"/>
         <v>0.29487202714415961</v>
       </c>
       <c r="H175" s="6">
-        <f>B175-D175</f>
+        <f t="shared" si="17"/>
         <v>0.30490892954891002</v>
       </c>
       <c r="I175" s="6">
-        <f>B175-E175</f>
+        <f t="shared" si="18"/>
         <v>0.30986579020196992</v>
       </c>
       <c r="J175" s="6"/>
@@ -8860,15 +8860,15 @@
       </c>
       <c r="F176" s="3"/>
       <c r="G176" s="3">
-        <f>B176-C176</f>
+        <f t="shared" si="16"/>
         <v>0.45506658230724994</v>
       </c>
       <c r="H176" s="3">
-        <f>B176-D176</f>
+        <f t="shared" si="17"/>
         <v>0.45954882324034951</v>
       </c>
       <c r="I176" s="3">
-        <f>B176-E176</f>
+        <f t="shared" si="18"/>
         <v>0.47596314357451952</v>
       </c>
       <c r="J176" s="3"/>
@@ -8909,15 +8909,15 @@
       </c>
       <c r="F177" s="6"/>
       <c r="G177" s="6">
-        <f>B177-C177</f>
+        <f t="shared" si="16"/>
         <v>0.46663584703530597</v>
       </c>
       <c r="H177" s="6">
-        <f>B177-D177</f>
+        <f t="shared" si="17"/>
         <v>0.59399872957533995</v>
       </c>
       <c r="I177" s="6">
-        <f>B177-E177</f>
+        <f t="shared" si="18"/>
         <v>0.59399872957835997</v>
       </c>
       <c r="J177" s="6"/>
@@ -8958,15 +8958,15 @@
       </c>
       <c r="F178" s="3"/>
       <c r="G178" s="3">
-        <f>B178-C178</f>
+        <f t="shared" si="16"/>
         <v>0.48995206550452997</v>
       </c>
       <c r="H178" s="3">
-        <f>B178-D178</f>
+        <f t="shared" si="17"/>
         <v>0.49989744198028996</v>
       </c>
       <c r="I178" s="3">
-        <f>B178-E178</f>
+        <f t="shared" si="18"/>
         <v>0.5157159359027399</v>
       </c>
       <c r="J178" s="3"/>
@@ -9007,15 +9007,15 @@
       </c>
       <c r="F179" s="6"/>
       <c r="G179" s="6">
-        <f>B179-C179</f>
+        <f t="shared" si="16"/>
         <v>0.53831861557848004</v>
       </c>
       <c r="H179" s="6">
-        <f>B179-D179</f>
+        <f t="shared" si="17"/>
         <v>0.76970394764718009</v>
       </c>
       <c r="I179" s="6">
-        <f>B179-E179</f>
+        <f t="shared" si="18"/>
         <v>-1.1583550119098618E-8</v>
       </c>
       <c r="J179" s="6"/>
@@ -9056,15 +9056,15 @@
       </c>
       <c r="F180" s="3"/>
       <c r="G180" s="3">
-        <f>B180-C180</f>
+        <f t="shared" si="16"/>
         <v>0.71591288316782009</v>
       </c>
       <c r="H180" s="3">
-        <f>B180-D180</f>
+        <f t="shared" si="17"/>
         <v>1.0080500806697401</v>
       </c>
       <c r="I180" s="3">
-        <f>B180-E180</f>
+        <f t="shared" si="18"/>
         <v>1.00805008056009</v>
       </c>
       <c r="J180" s="3"/>
@@ -9105,15 +9105,15 @@
       </c>
       <c r="F181" s="6"/>
       <c r="G181" s="6">
-        <f>B181-C181</f>
+        <f t="shared" si="16"/>
         <v>0.72528327467161002</v>
       </c>
       <c r="H181" s="6">
-        <f>B181-D181</f>
+        <f t="shared" si="17"/>
         <v>0.72346935229044984</v>
       </c>
       <c r="I181" s="6">
-        <f>B181-E181</f>
+        <f t="shared" si="18"/>
         <v>0.72328569177529989</v>
       </c>
       <c r="J181" s="6"/>
@@ -9154,15 +9154,15 @@
       </c>
       <c r="F182" s="6"/>
       <c r="G182" s="6">
-        <f>B182-C182</f>
+        <f t="shared" si="16"/>
         <v>0.7973652372281399</v>
       </c>
       <c r="H182" s="6">
-        <f>B182-D182</f>
+        <f t="shared" si="17"/>
         <v>1.0484522420070299</v>
       </c>
       <c r="I182" s="6">
-        <f>B182-E182</f>
+        <f t="shared" si="18"/>
         <v>-1.4303790152325746E-8</v>
       </c>
       <c r="J182" s="6"/>
@@ -9203,15 +9203,15 @@
       </c>
       <c r="F183" s="3"/>
       <c r="G183" s="3">
-        <f>B183-C183</f>
+        <f t="shared" si="16"/>
         <v>0.89587446405777005</v>
       </c>
       <c r="H183" s="3">
-        <f>B183-D183</f>
+        <f t="shared" si="17"/>
         <v>0.8895942311021301</v>
       </c>
       <c r="I183" s="3">
-        <f>B183-E183</f>
+        <f t="shared" si="18"/>
         <v>0.9819045149166401</v>
       </c>
       <c r="J183" s="3"/>
@@ -9252,15 +9252,15 @@
       </c>
       <c r="F184" s="3"/>
       <c r="G184" s="3">
-        <f>B184-C184</f>
+        <f t="shared" si="16"/>
         <v>1.2399422262519906</v>
       </c>
       <c r="H184" s="3">
-        <f>B184-D184</f>
+        <f t="shared" si="17"/>
         <v>1.25890616843727</v>
       </c>
       <c r="I184" s="3">
-        <f>B184-E184</f>
+        <f t="shared" si="18"/>
         <v>1.2584416323416399</v>
       </c>
       <c r="J184" s="3"/>
@@ -9301,15 +9301,15 @@
       </c>
       <c r="F185" s="3"/>
       <c r="G185" s="3">
-        <f>B185-C185</f>
+        <f t="shared" si="16"/>
         <v>1.3412356208736007</v>
       </c>
       <c r="H185" s="3">
-        <f>B185-D185</f>
+        <f t="shared" si="17"/>
         <v>1.3260292088895005</v>
       </c>
       <c r="I185" s="3">
-        <f>B185-E185</f>
+        <f t="shared" si="18"/>
         <v>1.3185438524929403</v>
       </c>
       <c r="J185" s="3"/>
@@ -9350,15 +9350,15 @@
       </c>
       <c r="F186" s="3"/>
       <c r="G186" s="3">
-        <f>B186-C186</f>
+        <f t="shared" si="16"/>
         <v>1.4554349086146008</v>
       </c>
       <c r="H186" s="3">
-        <f>B186-D186</f>
+        <f t="shared" si="17"/>
         <v>1.8718677994105999</v>
       </c>
       <c r="I186" s="3">
-        <f>B186-E186</f>
+        <f t="shared" si="18"/>
         <v>1.8718677994346997</v>
       </c>
       <c r="J186" s="3"/>
@@ -9399,15 +9399,15 @@
       </c>
       <c r="F187" s="6"/>
       <c r="G187" s="6">
-        <f>B187-C187</f>
+        <f t="shared" si="16"/>
         <v>1.4621669809297702</v>
       </c>
       <c r="H187" s="6">
-        <f>B187-D187</f>
+        <f t="shared" si="17"/>
         <v>1.9041789083450396</v>
       </c>
       <c r="I187" s="6">
-        <f>B187-E187</f>
+        <f t="shared" si="18"/>
         <v>1.9041789085517697</v>
       </c>
       <c r="J187" s="6"/>
@@ -9448,15 +9448,15 @@
       </c>
       <c r="F188" s="3"/>
       <c r="G188" s="3">
-        <f>B188-C188</f>
+        <f t="shared" si="16"/>
         <v>1.5310779424489596</v>
       </c>
       <c r="H188" s="3">
-        <f>B188-D188</f>
+        <f t="shared" si="17"/>
         <v>-9.9799470021366687E-8</v>
       </c>
       <c r="I188" s="3">
-        <f>B188-E188</f>
+        <f t="shared" si="18"/>
         <v>-4.2113500242635382E-8</v>
       </c>
       <c r="J188" s="3"/>
@@ -9497,15 +9497,15 @@
       </c>
       <c r="F189" s="6"/>
       <c r="G189" s="6">
-        <f>B189-C189</f>
+        <f t="shared" si="16"/>
         <v>1.5732435697673397</v>
       </c>
       <c r="H189" s="6">
-        <f>B189-D189</f>
+        <f t="shared" si="17"/>
         <v>-5.7101074002474661E-7</v>
       </c>
       <c r="I189" s="6">
-        <f>B189-E189</f>
+        <f t="shared" si="18"/>
         <v>-2.6087580096145757E-8</v>
       </c>
       <c r="J189" s="6"/>
@@ -9546,15 +9546,15 @@
       </c>
       <c r="F190" s="3"/>
       <c r="G190" s="3">
-        <f>B190-C190</f>
+        <f t="shared" si="16"/>
         <v>1.8285716019717002</v>
       </c>
       <c r="H190" s="3">
-        <f>B190-D190</f>
+        <f t="shared" si="17"/>
         <v>2.2677728652173306</v>
       </c>
       <c r="I190" s="3">
-        <f>B190-E190</f>
+        <f t="shared" si="18"/>
         <v>-2.025706002939387E-8</v>
       </c>
       <c r="J190" s="3"/>
@@ -9595,15 +9595,15 @@
       </c>
       <c r="F191" s="3"/>
       <c r="G191" s="3">
-        <f>B191-C191</f>
+        <f t="shared" si="16"/>
         <v>1.8545055414950697</v>
       </c>
       <c r="H191" s="3">
-        <f>B191-D191</f>
+        <f t="shared" si="17"/>
         <v>2.0191906672963098</v>
       </c>
       <c r="I191" s="3">
-        <f>B191-E191</f>
+        <f t="shared" si="18"/>
         <v>2.0191906679055101</v>
       </c>
       <c r="J191" s="3"/>
@@ -9644,15 +9644,15 @@
       </c>
       <c r="F192" s="6"/>
       <c r="G192" s="6">
-        <f>B192-C192</f>
+        <f t="shared" si="16"/>
         <v>1.9366275153525798</v>
       </c>
       <c r="H192" s="6">
-        <f>B192-D192</f>
+        <f t="shared" si="17"/>
         <v>2.1909409255283898</v>
       </c>
       <c r="I192" s="6">
-        <f>B192-E192</f>
+        <f t="shared" si="18"/>
         <v>-2.3577119812046021E-8</v>
       </c>
       <c r="J192" s="6"/>
@@ -9693,15 +9693,15 @@
       </c>
       <c r="F193" s="6"/>
       <c r="G193" s="6">
-        <f>B193-C193</f>
+        <f t="shared" si="16"/>
         <v>2.0928054627771804</v>
       </c>
       <c r="H193" s="6">
-        <f>B193-D193</f>
+        <f t="shared" si="17"/>
         <v>2.5155645362076005</v>
       </c>
       <c r="I193" s="6">
-        <f>B193-E193</f>
+        <f t="shared" si="18"/>
         <v>2.4061273666284002</v>
       </c>
       <c r="J193" s="6"/>
@@ -9742,15 +9742,15 @@
       </c>
       <c r="F194" s="6"/>
       <c r="G194" s="6">
-        <f>B194-C194</f>
+        <f t="shared" si="16"/>
         <v>2.1548617740536997</v>
       </c>
       <c r="H194" s="6">
-        <f>B194-D194</f>
+        <f t="shared" si="17"/>
         <v>2.5093299537476796</v>
       </c>
       <c r="I194" s="6">
-        <f>B194-E194</f>
+        <f t="shared" si="18"/>
         <v>2.5093299540870095</v>
       </c>
       <c r="J194" s="6"/>
@@ -9791,15 +9791,15 @@
       </c>
       <c r="F195" s="6"/>
       <c r="G195" s="6">
-        <f>B195-C195</f>
+        <f t="shared" si="16"/>
         <v>2.3262645796844401</v>
       </c>
       <c r="H195" s="6">
-        <f>B195-D195</f>
+        <f t="shared" si="17"/>
         <v>-3.8635949994869634E-7</v>
       </c>
       <c r="I195" s="6">
-        <f>B195-E195</f>
+        <f t="shared" si="18"/>
         <v>-2.764819040379507E-8</v>
       </c>
       <c r="J195" s="6"/>
@@ -9840,15 +9840,15 @@
       </c>
       <c r="F196" s="3"/>
       <c r="G196" s="3">
-        <f>B196-C196</f>
+        <f t="shared" ref="G196:G215" si="19">B196-C196</f>
         <v>2.4667308389776998</v>
       </c>
       <c r="H196" s="3">
-        <f>B196-D196</f>
+        <f t="shared" ref="H196:H215" si="20">B196-D196</f>
         <v>2.7182072541256801</v>
       </c>
       <c r="I196" s="3">
-        <f>B196-E196</f>
+        <f t="shared" ref="I196:I215" si="21">B196-E196</f>
         <v>2.7182072542193989</v>
       </c>
       <c r="J196" s="3"/>
@@ -9889,15 +9889,15 @@
       </c>
       <c r="F197" s="6"/>
       <c r="G197" s="6">
-        <f>B197-C197</f>
+        <f t="shared" si="19"/>
         <v>2.6048856987925095</v>
       </c>
       <c r="H197" s="6">
-        <f>B197-D197</f>
+        <f t="shared" si="20"/>
         <v>2.9083129152105198</v>
       </c>
       <c r="I197" s="6">
-        <f>B197-E197</f>
+        <f t="shared" si="21"/>
         <v>-2.8004640384438062E-8</v>
       </c>
       <c r="J197" s="6"/>
@@ -9938,15 +9938,15 @@
       </c>
       <c r="F198" s="3"/>
       <c r="G198" s="3">
-        <f>B198-C198</f>
+        <f t="shared" si="19"/>
         <v>2.69054609451655</v>
       </c>
       <c r="H198" s="3">
-        <f>B198-D198</f>
+        <f t="shared" si="20"/>
         <v>2.9305282106029602</v>
       </c>
       <c r="I198" s="3">
-        <f>B198-E198</f>
+        <f t="shared" si="21"/>
         <v>2.9305282105041899</v>
       </c>
       <c r="J198" s="3"/>
@@ -9987,15 +9987,15 @@
       </c>
       <c r="F199" s="6"/>
       <c r="G199" s="6">
-        <f>B199-C199</f>
+        <f t="shared" si="19"/>
         <v>2.6945657147722795</v>
       </c>
       <c r="H199" s="6">
-        <f>B199-D199</f>
+        <f t="shared" si="20"/>
         <v>2.70005281354769</v>
       </c>
       <c r="I199" s="6">
-        <f>B199-E199</f>
+        <f t="shared" si="21"/>
         <v>2.6994435547526701</v>
       </c>
       <c r="J199" s="6"/>
@@ -10036,15 +10036,15 @@
       </c>
       <c r="F200" s="3"/>
       <c r="G200" s="3">
-        <f>B200-C200</f>
+        <f t="shared" si="19"/>
         <v>2.7331020962406303</v>
       </c>
       <c r="H200" s="3">
-        <f>B200-D200</f>
+        <f t="shared" si="20"/>
         <v>2.7487966819609007</v>
       </c>
       <c r="I200" s="3">
-        <f>B200-E200</f>
+        <f t="shared" si="21"/>
         <v>2.7491776965228105</v>
       </c>
       <c r="J200" s="3"/>
@@ -10085,15 +10085,15 @@
       </c>
       <c r="F201" s="6"/>
       <c r="G201" s="6">
-        <f>B201-C201</f>
+        <f t="shared" si="19"/>
         <v>2.77800402053784</v>
       </c>
       <c r="H201" s="6">
-        <f>B201-D201</f>
+        <f t="shared" si="20"/>
         <v>3.1723666738486003</v>
       </c>
       <c r="I201" s="6">
-        <f>B201-E201</f>
+        <f t="shared" si="21"/>
         <v>-2.4485720118150311E-8</v>
       </c>
       <c r="J201" s="6"/>
@@ -10134,15 +10134,15 @@
       </c>
       <c r="F202" s="3"/>
       <c r="G202" s="3">
-        <f>B202-C202</f>
+        <f t="shared" si="19"/>
         <v>2.86383160352911</v>
       </c>
       <c r="H202" s="3">
-        <f>B202-D202</f>
+        <f t="shared" si="20"/>
         <v>3.2458531423525301</v>
       </c>
       <c r="I202" s="3">
-        <f>B202-E202</f>
+        <f t="shared" si="21"/>
         <v>2.9811712066914002</v>
       </c>
       <c r="J202" s="3"/>
@@ -10183,15 +10183,15 @@
       </c>
       <c r="F203" s="3"/>
       <c r="G203" s="3">
-        <f>B203-C203</f>
+        <f t="shared" si="19"/>
         <v>3.0598148587514102</v>
       </c>
       <c r="H203" s="3">
-        <f>B203-D203</f>
+        <f t="shared" si="20"/>
         <v>3.4286402189493401</v>
       </c>
       <c r="I203" s="3">
-        <f>B203-E203</f>
+        <f t="shared" si="21"/>
         <v>3.1263313661387602</v>
       </c>
       <c r="J203" s="3"/>
@@ -10232,15 +10232,15 @@
       </c>
       <c r="F204" s="6"/>
       <c r="G204" s="6">
-        <f>B204-C204</f>
+        <f t="shared" si="19"/>
         <v>3.2136804246886204</v>
       </c>
       <c r="H204" s="6">
-        <f>B204-D204</f>
+        <f t="shared" si="20"/>
         <v>3.5439449304267905</v>
       </c>
       <c r="I204" s="6">
-        <f>B204-E204</f>
+        <f t="shared" si="21"/>
         <v>3.2569837779240105</v>
       </c>
       <c r="J204" s="6"/>
@@ -10281,15 +10281,15 @@
       </c>
       <c r="F205" s="3"/>
       <c r="G205" s="3">
-        <f>B205-C205</f>
+        <f t="shared" si="19"/>
         <v>3.4277716524422797</v>
       </c>
       <c r="H205" s="3">
-        <f>B205-D205</f>
+        <f t="shared" si="20"/>
         <v>3.6239892969899499</v>
       </c>
       <c r="I205" s="3">
-        <f>B205-E205</f>
+        <f t="shared" si="21"/>
         <v>3.4575500336153597</v>
       </c>
       <c r="J205" s="3"/>
@@ -10330,15 +10330,15 @@
       </c>
       <c r="F206" s="6"/>
       <c r="G206" s="6">
-        <f>B206-C206</f>
+        <f t="shared" si="19"/>
         <v>3.5486979299328203</v>
       </c>
       <c r="H206" s="6">
-        <f>B206-D206</f>
+        <f t="shared" si="20"/>
         <v>3.5501617033608497</v>
       </c>
       <c r="I206" s="6">
-        <f>B206-E206</f>
+        <f t="shared" si="21"/>
         <v>3.54788054222099</v>
       </c>
       <c r="J206" s="6"/>
@@ -10379,15 +10379,15 @@
       </c>
       <c r="F207" s="3"/>
       <c r="G207" s="3">
-        <f>B207-C207</f>
+        <f t="shared" si="19"/>
         <v>3.7961424228673399</v>
       </c>
       <c r="H207" s="3">
-        <f>B207-D207</f>
+        <f t="shared" si="20"/>
         <v>4.0078915479352002</v>
       </c>
       <c r="I207" s="3">
-        <f>B207-E207</f>
+        <f t="shared" si="21"/>
         <v>3.8177717636653901</v>
       </c>
       <c r="J207" s="3"/>
@@ -10428,15 +10428,15 @@
       </c>
       <c r="F208" s="6"/>
       <c r="G208" s="6">
-        <f>B208-C208</f>
+        <f t="shared" si="19"/>
         <v>3.8974233793422393</v>
       </c>
       <c r="H208" s="6">
-        <f>B208-D208</f>
+        <f t="shared" si="20"/>
         <v>4.3050506160909192</v>
       </c>
       <c r="I208" s="6">
-        <f>B208-E208</f>
+        <f t="shared" si="21"/>
         <v>3.9962127030763295</v>
       </c>
       <c r="J208" s="6"/>
@@ -10477,15 +10477,15 @@
       </c>
       <c r="F209" s="3"/>
       <c r="G209" s="3">
-        <f>B209-C209</f>
+        <f t="shared" si="19"/>
         <v>4.5274120561166811</v>
       </c>
       <c r="H209" s="3">
-        <f>B209-D209</f>
+        <f t="shared" si="20"/>
         <v>4.5828239163034912</v>
       </c>
       <c r="I209" s="3">
-        <f>B209-E209</f>
+        <f t="shared" si="21"/>
         <v>4.5600238284180108</v>
       </c>
       <c r="J209" s="3"/>
@@ -10526,15 +10526,15 @@
       </c>
       <c r="F210" s="6"/>
       <c r="G210" s="6">
-        <f>B210-C210</f>
+        <f t="shared" si="19"/>
         <v>4.7798482446853097</v>
       </c>
       <c r="H210" s="6">
-        <f>B210-D210</f>
+        <f t="shared" si="20"/>
         <v>4.8281829116473602</v>
       </c>
       <c r="I210" s="6">
-        <f>B210-E210</f>
+        <f t="shared" si="21"/>
         <v>4.81681719949753</v>
       </c>
       <c r="J210" s="6"/>
@@ -10575,15 +10575,15 @@
       </c>
       <c r="F211" s="3"/>
       <c r="G211" s="3">
-        <f>B211-C211</f>
+        <f t="shared" si="19"/>
         <v>4.9260451928437003</v>
       </c>
       <c r="H211" s="3">
-        <f>B211-D211</f>
+        <f t="shared" si="20"/>
         <v>5.1229004396394</v>
       </c>
       <c r="I211" s="3">
-        <f>B211-E211</f>
+        <f t="shared" si="21"/>
         <v>5.1228999473672996</v>
       </c>
       <c r="J211" s="3"/>
@@ -10624,15 +10624,15 @@
       </c>
       <c r="F212" s="6"/>
       <c r="G212" s="6">
-        <f>B212-C212</f>
+        <f t="shared" si="19"/>
         <v>5.81122883105827</v>
       </c>
       <c r="H212" s="6">
-        <f>B212-D212</f>
+        <f t="shared" si="20"/>
         <v>5.9708461472279897</v>
       </c>
       <c r="I212" s="6">
-        <f>B212-E212</f>
+        <f t="shared" si="21"/>
         <v>5.9803673264855099</v>
       </c>
       <c r="J212" s="6"/>
@@ -10673,15 +10673,15 @@
       </c>
       <c r="F213" s="3"/>
       <c r="G213" s="3">
-        <f>B213-C213</f>
+        <f t="shared" si="19"/>
         <v>5.9891635065702005</v>
       </c>
       <c r="H213" s="3">
-        <f>B213-D213</f>
+        <f t="shared" si="20"/>
         <v>4.2899105737535006</v>
       </c>
       <c r="I213" s="3">
-        <f>B213-E213</f>
+        <f t="shared" si="21"/>
         <v>5.8538206766881</v>
       </c>
       <c r="J213" s="3"/>
@@ -10722,15 +10722,15 @@
       </c>
       <c r="F214" s="6"/>
       <c r="G214" s="6">
-        <f>B214-C214</f>
+        <f t="shared" si="19"/>
         <v>6.1801315996433894</v>
       </c>
       <c r="H214" s="6">
-        <f>B214-D214</f>
+        <f t="shared" si="20"/>
         <v>6.3417565514464096</v>
       </c>
       <c r="I214" s="6">
-        <f>B214-E214</f>
+        <f t="shared" si="21"/>
         <v>6.2292290717758902</v>
       </c>
       <c r="J214" s="6"/>
@@ -10771,15 +10771,15 @@
       </c>
       <c r="F215" s="3"/>
       <c r="G215" s="3">
-        <f>B215-C215</f>
+        <f t="shared" si="19"/>
         <v>7.1794886150346091</v>
       </c>
       <c r="H215" s="3">
-        <f>B215-D215</f>
+        <f t="shared" si="20"/>
         <v>7.2326875023197896</v>
       </c>
       <c r="I215" s="3">
-        <f>B215-E215</f>
+        <f t="shared" si="21"/>
         <v>5.5514019298477297</v>
       </c>
       <c r="J215" s="3"/>
@@ -10807,19 +10807,19 @@
         <v>19</v>
       </c>
       <c r="B217" s="12">
-        <f t="shared" ref="B217:F217" si="1">SUM(B164:B215)</f>
+        <f t="shared" ref="B217:E217" si="22">SUM(B164:B215)</f>
         <v>323.18959985079357</v>
       </c>
       <c r="C217" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>216.67962226441827</v>
       </c>
       <c r="D217" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>216.57801166647326</v>
       </c>
       <c r="E217" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>230.67005820971659</v>
       </c>
       <c r="G217" s="12">
